--- a/report/Report.xlsx
+++ b/report/Report.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="334">
   <si>
     <t>تاریخ گزارش</t>
   </si>
@@ -92,982 +92,958 @@
     <t/>
   </si>
   <si>
-    <t>ژیوار کامکار</t>
+    <t>شهرزاد مهدی‌پور</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>هربد( هیربد ) معروف</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>شیما فاطمی</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>آریا فر فارسی</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>اشکبوس لنکرانی</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>شاهپور عنایت</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>دلارام هوشیار</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>ماری عارف</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>کامجو مجرد</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>نوشدخت فروتن</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>آریا فر محمدی</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>شادمهر علم‌الهدی</t>
+  </si>
+  <si>
+    <t>Tanzania, United Republic of</t>
+  </si>
+  <si>
+    <t>اردوان محجوبی</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>شهرآرا واثقی</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>کیاندخت واعظی</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>فرخ مهر یادگار</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>فرخ داد غضنفری</t>
+  </si>
+  <si>
+    <t>لاله رخ نوبختی</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>شیوا فنایی</t>
+  </si>
+  <si>
+    <t>United Kingdom of Great Britain and Northern Ireland</t>
+  </si>
+  <si>
+    <t>ایران علی‌زمانی</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>فروزنده منوچهری</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>شهریار مرتضوی</t>
+  </si>
+  <si>
+    <t>Bolivia (Plurinational State of)</t>
+  </si>
+  <si>
+    <t>چابک مفتح</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>شوری فنایی</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>طوطی محدثی</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>گل اندام مهاجرانی</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>جویا لاهوتی</t>
+  </si>
+  <si>
+    <t>زونا فرمانفرمائیان</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>مهراندیش موحد</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>مهر آرا مفتح</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>کاووس مقدم</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>گیلدا کوشکی</t>
+  </si>
+  <si>
+    <t>خدایار علم</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>ساینا فهمیده</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>فرخ داد مجتهدی</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>کامک کریمی</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>ماهان کوشکی</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>یادگار واثقی</t>
+  </si>
+  <si>
+    <t>فریدون عالی</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>دیااکو فرامرزی</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>پریوش نهاوندی</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>دایان کیان</t>
+  </si>
+  <si>
+    <t>گهر چهر عالی</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>نیش ا نهاوندی</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>بهناز مرادخانی</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>ماهان قهرمانی</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>دلربا کردبچه</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>نازپرور مجاهد</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>مینودخت کامکار</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>نرگس کیان</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>نیما کلباسی</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>آرش لنکرانی</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>گلاله معروف</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>جیران مطهری</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>مستان مجتبایی</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>زرین عبدالکریمی</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>خرم فرهنگ</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>بهتاش لوکس</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>نوین دخت عبدالملکی</t>
+  </si>
+  <si>
+    <t>غوغا موسوی</t>
   </si>
   <si>
     <t>Nepal</t>
   </si>
   <si>
+    <t>تناز مفتاح</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>کانیار نواب</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>نگارین نوبختی</t>
+  </si>
+  <si>
+    <t>آهو مددی</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>سوسن هاشمی</t>
+  </si>
+  <si>
+    <t>آراه معروف</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
     <t>سولماز واثقی</t>
   </si>
   <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>شهین کاکاوند</t>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>گلنواز واعظ‌زاده</t>
   </si>
   <si>
     <t>Solomon Islands</t>
   </si>
   <si>
-    <t>زاوا گلپایگانی</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>رامشگر ناظری</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>برزو ملایری</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>مه جبین مصباح</t>
+    <t>هور هدایت</t>
+  </si>
+  <si>
+    <t>رامین قهرمانی</t>
+  </si>
+  <si>
+    <t>بانو منوچهری</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>وشمگیر لاجوردی</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>گشسب فرمانفرمائیان</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>نریمان عبادی</t>
+  </si>
+  <si>
+    <t>جهان علی‌پور</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>سنبله هاشمیان</t>
+  </si>
+  <si>
+    <t>مینو فر علیا</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>سیبوبه ‌ مجتهدی</t>
+  </si>
+  <si>
+    <t>دلربا کیان</t>
+  </si>
+  <si>
+    <t>گشتاسب کاویانی</t>
+  </si>
+  <si>
+    <t>گلبرگ لاجوردی</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>داریا مصاحب</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>ارغوان علیا</t>
+  </si>
+  <si>
+    <t>گهر چهر نوبختی</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>مستانه مفتح</t>
+  </si>
+  <si>
+    <t>خورشید مجرد</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>سودابه مجتهد شبستری</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>نوین دخت کردبچه</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>یاسمن ( یاسمین ) قانعی</t>
+  </si>
+  <si>
+    <t>مهسا مهدی‌پور</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>مانوش عبدالکریمی</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>گلاره قانونی</t>
+  </si>
+  <si>
+    <t>ارد شیر نجفی</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>دریا کوشکی</t>
+  </si>
+  <si>
+    <t>اختر نقیب‌زاده</t>
+  </si>
+  <si>
+    <t>Micronesia (Federated States of)</t>
+  </si>
+  <si>
+    <t>گل آرا‌ مصاحب</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>پیمان گلپایگانی</t>
+  </si>
+  <si>
+    <t>همایون هروی</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>فروز مشا</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>سیمین دخت غنی</t>
+  </si>
+  <si>
+    <t>مامک واعظ‌زاده</t>
+  </si>
+  <si>
+    <t>مرمر فریاد</t>
+  </si>
+  <si>
+    <t>طوطی مددی</t>
+  </si>
+  <si>
+    <t>نیکزاد مجرد</t>
+  </si>
+  <si>
+    <t>آرشام عزیزی</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>بوژان وکیلی</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>آرمین قهرمانی</t>
+  </si>
+  <si>
+    <t>ارد شیر گنجی</t>
+  </si>
+  <si>
+    <t>گوماتو مجتهدی</t>
+  </si>
+  <si>
+    <t>فراهان واثقی</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>سهراب عبدالملکی</t>
+  </si>
+  <si>
+    <t>فرخ زاد موسویان</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>سپیدار معارف</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>مهرانفر کاملی</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>گلبو کامکار</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>دانوش نقدی</t>
+  </si>
+  <si>
+    <t>فرهنگ علی‌آبادی</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>کیوان دخت گلپایگانی</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>نوش آفرین مظفر</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>هوروش علی‌آبادی</t>
+  </si>
+  <si>
+    <t>نوشفر قانونی</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>زرنگار عزیزی</t>
+  </si>
+  <si>
+    <t>همدم غنی</t>
+  </si>
+  <si>
+    <t>سوبار عنایت</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>مهین کدیور</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>گلبان همت</t>
+  </si>
+  <si>
+    <t>مهدیس میرباقری</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>فتانه واعظ</t>
+  </si>
+  <si>
+    <t>کیاندخت نواب</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>سرافراز علم‌الهدی</t>
+  </si>
+  <si>
+    <t>غوغا موحد</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>شهرنوش مجرد</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>سوسن عبدالملکی</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>کامیار واعظی</t>
+  </si>
+  <si>
+    <t>برزین گنجی</t>
+  </si>
+  <si>
+    <t>فراهان قهرمانیان</t>
+  </si>
+  <si>
+    <t>خداداد نامور</t>
+  </si>
+  <si>
+    <t>آناهیتا علی‌زمانی</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>سانا هراتی</t>
+  </si>
+  <si>
+    <t>گشسب بانو لاچینی</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>دلبند لوکس</t>
+  </si>
+  <si>
+    <t>زرین نواب</t>
   </si>
   <si>
     <t>New Zealand</t>
   </si>
   <si>
-    <t>لومانا کیمیایی</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>نیکزاد غنی</t>
-  </si>
-  <si>
-    <t>Czechia</t>
-  </si>
-  <si>
-    <t>شهبار گل محمدی</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>فروزنده قهستانی</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>فریوش موسوی</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>فیروز نامور</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>یادگار کامکار</t>
+    <t>بامشاد معین</t>
+  </si>
+  <si>
+    <t>برزو موسویان</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>دلکش مرادخانی</t>
+  </si>
+  <si>
+    <t>نازفر کیمیایی</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>جویا مظفر</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>فرانک کیان</t>
+  </si>
+  <si>
+    <t>مهریار ملایری</t>
+  </si>
+  <si>
+    <t>سامان مصباح‌زاده</t>
+  </si>
+  <si>
+    <t>آزیتا کاشی</t>
+  </si>
+  <si>
+    <t>گلرنگ معروف</t>
+  </si>
+  <si>
+    <t>فیروزه موسوی</t>
+  </si>
+  <si>
+    <t>رودابه عزیزی</t>
+  </si>
+  <si>
+    <t>انوش (‌ آنوشا ) فاطمی</t>
+  </si>
+  <si>
+    <t>نوش مفتح</t>
+  </si>
+  <si>
+    <t>نازی مصباح‌زاده</t>
+  </si>
+  <si>
+    <t>ایرج فرشیدورد</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>شیدا همدانی</t>
+  </si>
+  <si>
+    <t>نگاره محجوب</t>
+  </si>
+  <si>
+    <t>فرخ فروتن</t>
+  </si>
+  <si>
+    <t>مینو فر ناظری</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>نیکداد علی‌زمانی</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>کامران قانونی</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>ساغر غضنفری</t>
+  </si>
+  <si>
+    <t>مهیار میزبانی</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>نیش ا کدیور</t>
+  </si>
+  <si>
+    <t>گل آرا‌ مجتهد شبستری</t>
+  </si>
+  <si>
+    <t>آزیتا کمالی</t>
+  </si>
+  <si>
+    <t>شاهیندخت واثقی</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Republic of)</t>
+  </si>
+  <si>
+    <t>مه سیما مصباح‌زاده</t>
+  </si>
+  <si>
+    <t>نوید فرمانفرمائیان</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>گرگین لوکس</t>
+  </si>
+  <si>
+    <t>Korea, Republic of</t>
+  </si>
+  <si>
+    <t>آزیتا گل محمدی</t>
+  </si>
+  <si>
+    <t>نوشین نجفی</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>نازپرور مجتبوی</t>
+  </si>
+  <si>
+    <t>مرداس معارف</t>
+  </si>
+  <si>
+    <t>آزرم لاجوردی</t>
+  </si>
+  <si>
+    <t>فربد ملک</t>
+  </si>
+  <si>
+    <t>فرزانه کامکار</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>نگار نوبخت</t>
+  </si>
+  <si>
+    <t>فریناز عصار</t>
+  </si>
+  <si>
+    <t>یادگار فرامرزی</t>
+  </si>
+  <si>
+    <t>آرتمن واعظ</t>
+  </si>
+  <si>
+    <t>ویگن هروی</t>
+  </si>
+  <si>
+    <t>سارک علم</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>گلنسا یثربی</t>
+  </si>
+  <si>
+    <t>مینودخت فرهنگ</t>
+  </si>
+  <si>
+    <t>پریچهر هاشمیان</t>
+  </si>
+  <si>
+    <t>مهرنیا کردبچه</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>شهرزاد عقیلی</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>سوگند هاشمیان</t>
+  </si>
+  <si>
+    <t>Macedonia, the former Yugoslav Republic of</t>
+  </si>
+  <si>
+    <t>هویدا نوبختی</t>
+  </si>
+  <si>
+    <t>داریوش لاجوردی</t>
+  </si>
+  <si>
+    <t>سرافراز واعظ‌زاده</t>
+  </si>
+  <si>
+    <t>جهانبخش کیان</t>
   </si>
   <si>
     <t>Bhutan</t>
   </si>
   <si>
-    <t>فرخ لقا هومن</t>
-  </si>
-  <si>
-    <t>United States of America</t>
-  </si>
-  <si>
-    <t>ویشتاسب فروتن</t>
-  </si>
-  <si>
-    <t>نسترن مقدم</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>کاووس مرتضوی</t>
-  </si>
-  <si>
-    <t>Micronesia (Federated States of)</t>
-  </si>
-  <si>
-    <t>فرامرز لوکس</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>گوماتو معین</t>
-  </si>
-  <si>
-    <t>Congo, Democratic Republic of the</t>
-  </si>
-  <si>
-    <t>مهرنکار محدثی</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>مهر آذر هامون</t>
-  </si>
-  <si>
-    <t>مه جبین فارسی</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>ارژن نوبختی</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>فراز موحد</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>رژینا کهنمویی</t>
-  </si>
-  <si>
-    <t>بنفشه هاشمی رفسنجانی</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>هورتاش مصاحب</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>طوس گنجی</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>روزبه کیمیایی</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>فیروز مجتهد شبستری</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>خداداد همایون</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>لاله محمدی</t>
-  </si>
-  <si>
-    <t>همادخت نراقی</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>نیش ا نیلوفری</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>منیژه مجتبوی</t>
-  </si>
-  <si>
-    <t>گرشا نواب</t>
+    <t>مه جبین کلباسی</t>
+  </si>
+  <si>
+    <t>سیبوبه ‌ گنجی</t>
   </si>
   <si>
     <t>Yemen</t>
   </si>
   <si>
-    <t>ریبار مظفر</t>
-  </si>
-  <si>
-    <t>Venezuela (Bolivarian Republic of)</t>
-  </si>
-  <si>
-    <t>نازلی نوبختی</t>
-  </si>
-  <si>
-    <t>سارک کاکاوند</t>
-  </si>
-  <si>
-    <t>Brunei Darussalam</t>
-  </si>
-  <si>
-    <t>نوش آور هدایت</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>هومان ناظری</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>زردشت علم‌الهدی</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>رازبان میرزاده</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>فرید واعظ‌زاده</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>فرانک واعظ‌زاده</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>یاور محمدی</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>نوشا میرباقری</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
-    <t>رامیلا فانی</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>طهماسب منوچهری</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>آذرنوش‌ مفتح</t>
-  </si>
-  <si>
-    <t>Cabo Verde</t>
-  </si>
-  <si>
-    <t>گشسب فرشیدورد</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>فراز علم‌الهدی</t>
-  </si>
-  <si>
-    <t>میترا نامور</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>دلناز نقدی</t>
-  </si>
-  <si>
-    <t>آیدا علیا</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>مهرانگیز فریاد</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>ترانه هدایت</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>پونه لوکس</t>
-  </si>
-  <si>
-    <t>فرنود لنکرانی</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>ارمغان کاکاوند</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>آناهیتا غضنفری</t>
-  </si>
-  <si>
-    <t>مهیار موسویان</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>راسپینا مشا</t>
-  </si>
-  <si>
-    <t>مینا دخت علی‌پور</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>پرشنگ میرسپاسی</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>مارال قهرمانی</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>زاد به مرادخانی</t>
-  </si>
-  <si>
-    <t>همراه فروتن</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>سهراب هاشمیان</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>نسرین دخت یادگار</t>
-  </si>
-  <si>
-    <t>پوریا محمدی</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>فروغ فرج</t>
-  </si>
-  <si>
-    <t>فراز عنایت</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>کلاله مطهری</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>مرمر نواب</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>دل آرا میزبانی</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>مهر آفاق میرباقری</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>بهتاش وکیلی</t>
-  </si>
-  <si>
-    <t>بارمان مجرد</t>
-  </si>
-  <si>
-    <t>ایران منوچهری</t>
-  </si>
-  <si>
-    <t>فردیس مستوفی</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>مژده محدثی</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>سیما قانعی</t>
-  </si>
-  <si>
-    <t>کیومرث محجوب</t>
-  </si>
-  <si>
-    <t>مهشید منوچهری</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>سیامک همت</t>
-  </si>
-  <si>
-    <t>مهرنیا نجفی</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>بویان واعظ‌زاده</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>گلبان میزبانی</t>
-  </si>
-  <si>
-    <t>نوشین فهمیده</t>
-  </si>
-  <si>
-    <t>نازی فنی‌زاده</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>خدایار مفتح</t>
-  </si>
-  <si>
-    <t>گل آذین کاملی</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>رزمیار ملک</t>
-  </si>
-  <si>
-    <t>رخسار کامکار</t>
-  </si>
-  <si>
-    <t>Syrian Arab Republic</t>
-  </si>
-  <si>
-    <t>مهستی قمیشی</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>پوران نامور</t>
-  </si>
-  <si>
-    <t>یزدان ندوشن</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>پرتو نجفی</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>شراره قانونی</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>هربد( هیربد ) نامور</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>لاله دخت محجوب</t>
-  </si>
-  <si>
-    <t>سولان کریمی</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>دلنواز کریمی</t>
-  </si>
-  <si>
-    <t>نیک خواه معین</t>
-  </si>
-  <si>
-    <t>شهرزاد لوکس</t>
-  </si>
-  <si>
-    <t>مهسا واثقی</t>
-  </si>
-  <si>
-    <t>Lao People's Democratic Republic</t>
-  </si>
-  <si>
-    <t>کیانچهر گنجی</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>مهنوش فارسی</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>زرین نجفی</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>کهزاد قاضی</t>
-  </si>
-  <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>کامبخش هراتی</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>شهرناز عبدالملکی</t>
-  </si>
-  <si>
-    <t>نیما لوکس</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>مینودخت مفتح</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>گلزار مقدم</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>کیخسرو نقیب‌زاده</t>
-  </si>
-  <si>
-    <t>نوش آذر مصباح‌زاده</t>
-  </si>
-  <si>
-    <t>Bolivia (Plurinational State of)</t>
-  </si>
-  <si>
-    <t>بختیار واعظی</t>
-  </si>
-  <si>
-    <t>مهر دخت هراتی</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>پونه هدایت</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>نیکدخت عبدالکریمی</t>
-  </si>
-  <si>
-    <t>بیژن کردبچه</t>
-  </si>
-  <si>
-    <t>شیردل مستوفی</t>
-  </si>
-  <si>
-    <t>سهند نوبخت</t>
-  </si>
-  <si>
-    <t>زادبخت مددی</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>گلپاره محجوبی</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>ارنواز عزیزی</t>
-  </si>
-  <si>
-    <t>بنفشه علی‌پور</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>مهرانفر منوچهری</t>
-  </si>
-  <si>
-    <t>پیام مجتهدی</t>
-  </si>
-  <si>
-    <t>جویا هدایت</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>نازچهر هاشمیان</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>گیتی منوچهری</t>
-  </si>
-  <si>
-    <t>کامراوا مرتضوی</t>
-  </si>
-  <si>
-    <t>Korea (Democratic People's Republic of)</t>
-  </si>
-  <si>
-    <t>روبینا مجرد</t>
-  </si>
-  <si>
-    <t>مینا علیا</t>
-  </si>
-  <si>
-    <t>شوان مشا</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>فرناز علی‌پور</t>
-  </si>
-  <si>
-    <t>Korea, Republic of</t>
-  </si>
-  <si>
-    <t>سینا مظفر</t>
-  </si>
-  <si>
-    <t>مانیا هدایت</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>پارسا قانعی</t>
-  </si>
-  <si>
-    <t>کانیار معارف</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>پروین مصاحب</t>
-  </si>
-  <si>
-    <t>بهناز علی‌زمانی</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>اوژن نهاوندی</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>دلبند فرشیدورد</t>
-  </si>
-  <si>
-    <t>گلچین قهرمانی</t>
-  </si>
-  <si>
-    <t>دل آویز مطهری</t>
-  </si>
-  <si>
-    <t>مهرداد مستوفی</t>
-  </si>
-  <si>
-    <t>رستم کاملی</t>
-  </si>
-  <si>
-    <t>نوشدخت همدانی</t>
-  </si>
-  <si>
-    <t>پریوش ندوشن</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>میخک قهستانی</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>سیامک یادگار</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>نسترن ملک</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>گلبام واعظ</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>شهره لوکس</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>شراره لاجوردی</t>
-  </si>
-  <si>
-    <t>مرمر عبدالملکی</t>
-  </si>
-  <si>
-    <t>نگاره ندوشن</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>فرخ لقا منوچهری</t>
-  </si>
-  <si>
-    <t>نرمک علیا</t>
-  </si>
-  <si>
-    <t>هیما علی‌آبادی</t>
-  </si>
-  <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
-    <t>مهسا غضنفری</t>
-  </si>
-  <si>
-    <t>لقاء نیلوفری</t>
-  </si>
-  <si>
-    <t>هونام کیانی (نام خانوادگی)</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>سرافراز واعظی</t>
-  </si>
-  <si>
-    <t>فروز لاچینی</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>گلبان قهرمانیان</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>جهان ناز کمالی</t>
-  </si>
-  <si>
-    <t>یوشیتا مفتاح</t>
-  </si>
-  <si>
-    <t>نوین دخت محدثی</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>خاوردخت هاشمی رفسنجانی</t>
-  </si>
-  <si>
-    <t>تینو لاچینی</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>رادمان عبادی</t>
-  </si>
-  <si>
-    <t>مهبانو هراتی</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>باپوک کاکاوند</t>
-  </si>
-  <si>
-    <t>رابو مقدم</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>ماندانا نراقی</t>
-  </si>
-  <si>
-    <t>ارنواز فنی‌زاده</t>
-  </si>
-  <si>
-    <t>مانی لاجوردی</t>
-  </si>
-  <si>
-    <t>دل آرا قانونی</t>
-  </si>
-  <si>
-    <t>مهرانفر علیا</t>
-  </si>
-  <si>
-    <t>ندا هراتی</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>هوروش گل محمدی</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>ایاز مصاحب</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>رابو واعظ</t>
-  </si>
-  <si>
-    <t>راسا موسوی</t>
-  </si>
-  <si>
-    <t>تاویار مستوفی</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>جهاندخت گنجی</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>گلبو فاطمی</t>
-  </si>
-  <si>
-    <t>شهلا کمالی</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>کمبوجیه کلباسی</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>ورجاوند قانونی</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>رستم فاطمی</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>پولاد لاهوتی</t>
-  </si>
-  <si>
-    <t>شهرام هراتی</t>
-  </si>
-  <si>
-    <t>نیک پی قاضی</t>
+    <t>فروزش فرهنگ</t>
+  </si>
+  <si>
+    <t>شیرو غنی</t>
   </si>
 </sst>
 </file>
@@ -1856,15 +1832,15 @@
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23" t="n">
-        <v>24462.030902777777</v>
+        <v>32403.260462962964</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="n">
-        <v>10107.0</v>
+        <v>5702.0</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="23" t="n">
-        <v>816.0</v>
+        <v>9147.0</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="23" t="s">
@@ -1878,15 +1854,15 @@
       </c>
       <c r="B9" s="23"/>
       <c r="C9" t="n" s="23">
-        <v>34042.31957175926</v>
+        <v>23089.836203703704</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" t="n" s="23">
-        <v>10365.0</v>
+        <v>4643.0</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" t="n" s="23">
-        <v>5145.0</v>
+        <v>8558.0</v>
       </c>
       <c r="H9" s="23"/>
       <c r="I9" t="s" s="23">
@@ -1900,15 +1876,15 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" t="n" s="23">
-        <v>31156.277997685185</v>
+        <v>36777.49884259259</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" t="n" s="23">
-        <v>8258.0</v>
+        <v>3807.0</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" t="n" s="23">
-        <v>1210.0</v>
+        <v>9851.0</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" t="s" s="23">
@@ -1922,15 +1898,15 @@
       </c>
       <c r="B11" s="23"/>
       <c r="C11" t="n" s="23">
-        <v>31946.184236111112</v>
+        <v>31130.294814814813</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" t="n" s="23">
-        <v>7016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" t="n" s="23">
-        <v>1067.0</v>
+        <v>10494.0</v>
       </c>
       <c r="H11" s="23"/>
       <c r="I11" t="s" s="23">
@@ -1944,15 +1920,15 @@
       </c>
       <c r="B12" s="23"/>
       <c r="C12" t="n" s="23">
-        <v>29609.394803240742</v>
+        <v>25207.299988425926</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" t="n" s="23">
-        <v>4890.0</v>
+        <v>8485.0</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" t="n" s="23">
-        <v>2830.0</v>
+        <v>9581.0</v>
       </c>
       <c r="H12" s="23"/>
       <c r="I12" t="s" s="23">
@@ -1966,15 +1942,15 @@
       </c>
       <c r="B13" s="23"/>
       <c r="C13" t="n" s="23">
-        <v>23868.272233796295</v>
+        <v>22357.82016203704</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" t="n" s="23">
-        <v>5904.0</v>
+        <v>8907.0</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" t="n" s="23">
-        <v>932.0</v>
+        <v>2551.0</v>
       </c>
       <c r="H13" s="23"/>
       <c r="I13" t="s" s="23">
@@ -1988,15 +1964,15 @@
       </c>
       <c r="B14" s="23"/>
       <c r="C14" t="n" s="23">
-        <v>34495.03456018519</v>
+        <v>30395.799849537038</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" t="n" s="23">
-        <v>3694.0</v>
+        <v>5227.0</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" t="n" s="23">
-        <v>3156.0</v>
+        <v>10014.0</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" t="s" s="23">
@@ -2010,15 +1986,15 @@
       </c>
       <c r="B15" s="23"/>
       <c r="C15" t="n" s="23">
-        <v>32062.524988425925</v>
+        <v>32996.54241898148</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" t="n" s="23">
-        <v>6647.0</v>
+        <v>8220.0</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" t="n" s="23">
-        <v>2602.0</v>
+        <v>8174.0</v>
       </c>
       <c r="H15" s="23"/>
       <c r="I15" t="s" s="23">
@@ -2032,15 +2008,15 @@
       </c>
       <c r="B16" s="23"/>
       <c r="C16" t="n" s="23">
-        <v>36521.83238425926</v>
+        <v>22635.00136574074</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" t="n" s="23">
-        <v>6471.0</v>
+        <v>10440.0</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" t="n" s="23">
-        <v>9739.0</v>
+        <v>2678.0</v>
       </c>
       <c r="H16" s="23"/>
       <c r="I16" t="s" s="23">
@@ -2054,15 +2030,15 @@
       </c>
       <c r="B17" s="23"/>
       <c r="C17" t="n" s="23">
-        <v>27357.07190972222</v>
+        <v>35581.370104166665</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" t="n" s="23">
-        <v>1037.0</v>
+        <v>8898.0</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" t="n" s="23">
-        <v>3912.0</v>
+        <v>4713.0</v>
       </c>
       <c r="H17" s="23"/>
       <c r="I17" t="s" s="23">
@@ -2076,15 +2052,15 @@
       </c>
       <c r="B18" s="23"/>
       <c r="C18" t="n" s="23">
-        <v>34121.32334490741</v>
+        <v>28395.376030092593</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" t="n" s="23">
-        <v>3562.0</v>
+        <v>7489.0</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" t="n" s="23">
-        <v>1030.0</v>
+        <v>6789.0</v>
       </c>
       <c r="H18" s="23"/>
       <c r="I18" t="s" s="23">
@@ -2098,15 +2074,15 @@
       </c>
       <c r="B19" s="23"/>
       <c r="C19" t="n" s="23">
-        <v>26145.73690972222</v>
+        <v>36197.50540509259</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" t="n" s="23">
-        <v>1769.0</v>
+        <v>1615.0</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" t="n" s="23">
-        <v>1765.0</v>
+        <v>10129.0</v>
       </c>
       <c r="H19" s="23"/>
       <c r="I19" t="s" s="23">
@@ -2120,15 +2096,15 @@
       </c>
       <c r="B20" s="23"/>
       <c r="C20" t="n" s="23">
-        <v>22731.00928240741</v>
+        <v>32525.233275462964</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" t="n" s="23">
-        <v>2085.0</v>
+        <v>10400.0</v>
       </c>
       <c r="F20" s="23"/>
       <c r="G20" t="n" s="23">
-        <v>4078.0</v>
+        <v>10486.0</v>
       </c>
       <c r="H20" s="23"/>
       <c r="I20" t="s" s="23">
@@ -2142,15 +2118,15 @@
       </c>
       <c r="B21" s="23"/>
       <c r="C21" t="n" s="23">
-        <v>22180.345405092594</v>
+        <v>33413.93537037037</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" t="n" s="23">
-        <v>8928.0</v>
+        <v>5296.0</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" t="n" s="23">
-        <v>8932.0</v>
+        <v>3495.0</v>
       </c>
       <c r="H21" s="23"/>
       <c r="I21" t="s" s="23">
@@ -2164,15 +2140,15 @@
       </c>
       <c r="B22" s="23"/>
       <c r="C22" t="n" s="23">
-        <v>23634.26185185185</v>
+        <v>26370.802974537037</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" t="n" s="23">
-        <v>1132.0</v>
+        <v>2902.0</v>
       </c>
       <c r="F22" s="23"/>
       <c r="G22" t="n" s="23">
-        <v>2243.0</v>
+        <v>1259.0</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" t="s" s="23">
@@ -2186,41 +2162,41 @@
       </c>
       <c r="B23" s="23"/>
       <c r="C23" t="n" s="23">
-        <v>27954.09832175926</v>
+        <v>27344.150532407406</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" t="n" s="23">
-        <v>9651.0</v>
+        <v>5629.0</v>
       </c>
       <c r="F23" s="23"/>
       <c r="G23" t="n" s="23">
-        <v>3858.0</v>
+        <v>698.0</v>
       </c>
       <c r="H23" s="23"/>
       <c r="I23" t="s" s="23">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J23" s="24"/>
     </row>
     <row r="24" ht="18.0" customHeight="true">
       <c r="A24" t="s" s="22">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" t="n" s="23">
-        <v>21902.25222222222</v>
+        <v>21949.25841435185</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" t="n" s="23">
-        <v>4961.0</v>
+        <v>752.0</v>
       </c>
       <c r="F24" s="23"/>
       <c r="G24" t="n" s="23">
-        <v>8441.0</v>
+        <v>7012.0</v>
       </c>
       <c r="H24" s="23"/>
       <c r="I24" t="s" s="23">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J24" s="24"/>
     </row>
@@ -2230,15 +2206,15 @@
       </c>
       <c r="B25" s="23"/>
       <c r="C25" t="n" s="23">
-        <v>23930.30820601852</v>
+        <v>35458.41300925926</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" t="n" s="23">
-        <v>4604.0</v>
+        <v>3181.0</v>
       </c>
       <c r="F25" s="23"/>
       <c r="G25" t="n" s="23">
-        <v>2408.0</v>
+        <v>7712.0</v>
       </c>
       <c r="H25" s="23"/>
       <c r="I25" t="s" s="23">
@@ -2252,15 +2228,15 @@
       </c>
       <c r="B26" s="23"/>
       <c r="C26" t="n" s="23">
-        <v>30090.722395833334</v>
+        <v>30931.78369212963</v>
       </c>
       <c r="D26" s="23"/>
       <c r="E26" t="n" s="23">
-        <v>3785.0</v>
+        <v>9038.0</v>
       </c>
       <c r="F26" s="23"/>
       <c r="G26" t="n" s="23">
-        <v>3989.0</v>
+        <v>8100.0</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" t="s" s="23">
@@ -2274,15 +2250,15 @@
       </c>
       <c r="B27" s="23"/>
       <c r="C27" t="n" s="23">
-        <v>37550.63800925926</v>
+        <v>36242.00331018519</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" t="n" s="23">
-        <v>1114.0</v>
+        <v>4828.0</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" t="n" s="23">
-        <v>5583.0</v>
+        <v>6350.0</v>
       </c>
       <c r="H27" s="23"/>
       <c r="I27" t="s" s="23">
@@ -2296,15 +2272,15 @@
       </c>
       <c r="B28" s="23"/>
       <c r="C28" t="n" s="23">
-        <v>25398.987060185184</v>
+        <v>29502.90409722222</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" t="n" s="23">
-        <v>10078.0</v>
+        <v>3616.0</v>
       </c>
       <c r="F28" s="23"/>
       <c r="G28" t="n" s="23">
-        <v>10432.0</v>
+        <v>1289.0</v>
       </c>
       <c r="H28" s="23"/>
       <c r="I28" t="s" s="23">
@@ -2318,239 +2294,239 @@
       </c>
       <c r="B29" s="23"/>
       <c r="C29" t="n" s="23">
-        <v>26801.657858796298</v>
+        <v>37225.36342592593</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" t="n" s="23">
-        <v>7068.0</v>
+        <v>854.0</v>
       </c>
       <c r="F29" s="23"/>
       <c r="G29" t="n" s="23">
-        <v>7563.0</v>
+        <v>3700.0</v>
       </c>
       <c r="H29" s="23"/>
       <c r="I29" t="s" s="23">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J29" s="24"/>
     </row>
     <row r="30" ht="18.0" customHeight="true">
       <c r="A30" t="s" s="22">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" t="n" s="23">
-        <v>23956.951296296298</v>
+        <v>34598.654340277775</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" t="n" s="23">
-        <v>5511.0</v>
+        <v>8240.0</v>
       </c>
       <c r="F30" s="23"/>
       <c r="G30" t="n" s="23">
-        <v>9641.0</v>
+        <v>5357.0</v>
       </c>
       <c r="H30" s="23"/>
       <c r="I30" t="s" s="23">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J30" s="24"/>
     </row>
     <row r="31" ht="18.0" customHeight="true">
       <c r="A31" t="s" s="22">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" t="n" s="23">
-        <v>25672.412708333333</v>
+        <v>27101.461805555555</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" t="n" s="23">
-        <v>7504.0</v>
+        <v>10320.0</v>
       </c>
       <c r="F31" s="23"/>
       <c r="G31" t="n" s="23">
-        <v>4760.0</v>
+        <v>6003.0</v>
       </c>
       <c r="H31" s="23"/>
       <c r="I31" t="s" s="23">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J31" s="24"/>
     </row>
     <row r="32" ht="18.0" customHeight="true">
       <c r="A32" t="s" s="22">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" t="n" s="23">
-        <v>27314.31681712963</v>
+        <v>24196.43733796296</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" t="n" s="23">
-        <v>5636.0</v>
+        <v>6571.0</v>
       </c>
       <c r="F32" s="23"/>
       <c r="G32" t="n" s="23">
-        <v>9275.0</v>
+        <v>1421.0</v>
       </c>
       <c r="H32" s="23"/>
       <c r="I32" t="s" s="23">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J32" s="24"/>
     </row>
     <row r="33" ht="18.0" customHeight="true">
       <c r="A33" t="s" s="22">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" t="n" s="23">
-        <v>38407.402962962966</v>
+        <v>35053.91851851852</v>
       </c>
       <c r="D33" s="23"/>
       <c r="E33" t="n" s="23">
-        <v>1925.0</v>
+        <v>1903.0</v>
       </c>
       <c r="F33" s="23"/>
       <c r="G33" t="n" s="23">
-        <v>5361.0</v>
+        <v>8956.0</v>
       </c>
       <c r="H33" s="23"/>
       <c r="I33" t="s" s="23">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="J33" s="24"/>
     </row>
     <row r="34" ht="18.0" customHeight="true">
       <c r="A34" t="s" s="22">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" t="n" s="23">
-        <v>37332.719039351854</v>
+        <v>24402.36189814815</v>
       </c>
       <c r="D34" s="23"/>
       <c r="E34" t="n" s="23">
-        <v>1844.0</v>
+        <v>9428.0</v>
       </c>
       <c r="F34" s="23"/>
       <c r="G34" t="n" s="23">
-        <v>9471.0</v>
+        <v>9394.0</v>
       </c>
       <c r="H34" s="23"/>
       <c r="I34" t="s" s="23">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="J34" s="24"/>
     </row>
     <row r="35" ht="18.0" customHeight="true">
       <c r="A35" t="s" s="22">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" t="n" s="23">
-        <v>29958.00005787037</v>
+        <v>27527.752511574075</v>
       </c>
       <c r="D35" s="23"/>
       <c r="E35" t="n" s="23">
-        <v>4397.0</v>
+        <v>4876.0</v>
       </c>
       <c r="F35" s="23"/>
       <c r="G35" t="n" s="23">
-        <v>6852.0</v>
+        <v>6416.0</v>
       </c>
       <c r="H35" s="23"/>
       <c r="I35" t="s" s="23">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J35" s="24"/>
     </row>
     <row r="36" ht="18.0" customHeight="true">
       <c r="A36" t="s" s="22">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" t="n" s="23">
-        <v>31413.425520833334</v>
+        <v>34132.039143518516</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" t="n" s="23">
-        <v>5760.0</v>
+        <v>2648.0</v>
       </c>
       <c r="F36" s="23"/>
       <c r="G36" t="n" s="23">
-        <v>1159.0</v>
+        <v>9495.0</v>
       </c>
       <c r="H36" s="23"/>
       <c r="I36" t="s" s="23">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J36" s="24"/>
     </row>
     <row r="37" ht="18.0" customHeight="true">
       <c r="A37" t="s" s="22">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" t="n" s="23">
-        <v>26546.030555555557</v>
+        <v>28942.56472222222</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" t="n" s="23">
-        <v>8430.0</v>
+        <v>3658.0</v>
       </c>
       <c r="F37" s="23"/>
       <c r="G37" t="n" s="23">
-        <v>4236.0</v>
+        <v>2422.0</v>
       </c>
       <c r="H37" s="23"/>
       <c r="I37" t="s" s="23">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J37" s="24"/>
     </row>
     <row r="38" ht="18.0" customHeight="true">
       <c r="A38" t="s" s="22">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" t="n" s="23">
-        <v>24314.789791666666</v>
+        <v>36168.798101851855</v>
       </c>
       <c r="D38" s="23"/>
       <c r="E38" t="n" s="23">
-        <v>8705.0</v>
+        <v>5675.0</v>
       </c>
       <c r="F38" s="23"/>
       <c r="G38" t="n" s="23">
-        <v>9585.0</v>
+        <v>3947.0</v>
       </c>
       <c r="H38" s="23"/>
       <c r="I38" t="s" s="23">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J38" s="24"/>
     </row>
     <row r="39" ht="18.0" customHeight="true">
       <c r="A39" t="s" s="22">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" t="n" s="23">
-        <v>35646.79094907407</v>
+        <v>34968.02643518519</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" t="n" s="23">
-        <v>8378.0</v>
+        <v>9880.0</v>
       </c>
       <c r="F39" s="23"/>
       <c r="G39" t="n" s="23">
-        <v>2422.0</v>
+        <v>3301.0</v>
       </c>
       <c r="H39" s="23"/>
       <c r="I39" t="s" s="23">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="J39" s="24"/>
     </row>
@@ -2560,1581 +2536,1581 @@
       </c>
       <c r="B40" s="23"/>
       <c r="C40" t="n" s="23">
-        <v>27121.381516203703</v>
+        <v>36096.84395833333</v>
       </c>
       <c r="D40" s="23"/>
       <c r="E40" t="n" s="23">
-        <v>2298.0</v>
+        <v>7024.0</v>
       </c>
       <c r="F40" s="23"/>
       <c r="G40" t="n" s="23">
-        <v>4240.0</v>
+        <v>6895.0</v>
       </c>
       <c r="H40" s="23"/>
       <c r="I40" t="s" s="23">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="J40" s="24"/>
     </row>
     <row r="41" ht="18.0" customHeight="true">
       <c r="A41" t="s" s="22">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" t="n" s="23">
-        <v>27510.001724537036</v>
+        <v>26073.23193287037</v>
       </c>
       <c r="D41" s="23"/>
       <c r="E41" t="n" s="23">
-        <v>7446.0</v>
+        <v>10062.0</v>
       </c>
       <c r="F41" s="23"/>
       <c r="G41" t="n" s="23">
-        <v>8253.0</v>
+        <v>2843.0</v>
       </c>
       <c r="H41" s="23"/>
       <c r="I41" t="s" s="23">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J41" s="24"/>
     </row>
     <row r="42" ht="18.0" customHeight="true">
       <c r="A42" t="s" s="22">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" t="n" s="23">
-        <v>22134.36940972222</v>
+        <v>30627.51334490741</v>
       </c>
       <c r="D42" s="23"/>
       <c r="E42" t="n" s="23">
-        <v>3427.0</v>
+        <v>2395.0</v>
       </c>
       <c r="F42" s="23"/>
       <c r="G42" t="n" s="23">
-        <v>1793.0</v>
+        <v>9546.0</v>
       </c>
       <c r="H42" s="23"/>
       <c r="I42" t="s" s="23">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J42" s="24"/>
     </row>
     <row r="43" ht="18.0" customHeight="true">
       <c r="A43" t="s" s="22">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" t="n" s="23">
-        <v>25130.2646875</v>
+        <v>23416.566840277777</v>
       </c>
       <c r="D43" s="23"/>
       <c r="E43" t="n" s="23">
-        <v>10430.0</v>
+        <v>8674.0</v>
       </c>
       <c r="F43" s="23"/>
       <c r="G43" t="n" s="23">
-        <v>2395.0</v>
+        <v>4538.0</v>
       </c>
       <c r="H43" s="23"/>
       <c r="I43" t="s" s="23">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="J43" s="24"/>
     </row>
     <row r="44" ht="18.0" customHeight="true">
       <c r="A44" t="s" s="22">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" t="n" s="23">
-        <v>29897.63761574074</v>
+        <v>27940.691076388888</v>
       </c>
       <c r="D44" s="23"/>
       <c r="E44" t="n" s="23">
-        <v>7270.0</v>
+        <v>3708.0</v>
       </c>
       <c r="F44" s="23"/>
       <c r="G44" t="n" s="23">
-        <v>4794.0</v>
+        <v>8274.0</v>
       </c>
       <c r="H44" s="23"/>
       <c r="I44" t="s" s="23">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J44" s="24"/>
     </row>
     <row r="45" ht="18.0" customHeight="true">
       <c r="A45" t="s" s="22">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" t="n" s="23">
-        <v>22240.370949074073</v>
+        <v>22717.809849537036</v>
       </c>
       <c r="D45" s="23"/>
       <c r="E45" t="n" s="23">
-        <v>4822.0</v>
+        <v>9025.0</v>
       </c>
       <c r="F45" s="23"/>
       <c r="G45" t="n" s="23">
-        <v>4338.0</v>
+        <v>9222.0</v>
       </c>
       <c r="H45" s="23"/>
       <c r="I45" t="s" s="23">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J45" s="24"/>
     </row>
     <row r="46" ht="18.0" customHeight="true">
       <c r="A46" t="s" s="22">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" t="n" s="23">
-        <v>22754.785335648146</v>
+        <v>37923.72920138889</v>
       </c>
       <c r="D46" s="23"/>
       <c r="E46" t="n" s="23">
-        <v>10226.0</v>
+        <v>3368.0</v>
       </c>
       <c r="F46" s="23"/>
       <c r="G46" t="n" s="23">
-        <v>2671.0</v>
+        <v>8947.0</v>
       </c>
       <c r="H46" s="23"/>
       <c r="I46" t="s" s="23">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="J46" s="24"/>
     </row>
     <row r="47" ht="18.0" customHeight="true">
       <c r="A47" t="s" s="22">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" t="n" s="23">
-        <v>35942.26648148148</v>
+        <v>33087.34449074074</v>
       </c>
       <c r="D47" s="23"/>
       <c r="E47" t="n" s="23">
-        <v>2766.0</v>
+        <v>2468.0</v>
       </c>
       <c r="F47" s="23"/>
       <c r="G47" t="n" s="23">
-        <v>706.0</v>
+        <v>10300.0</v>
       </c>
       <c r="H47" s="23"/>
       <c r="I47" t="s" s="23">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J47" s="24"/>
     </row>
     <row r="48" ht="18.0" customHeight="true">
       <c r="A48" t="s" s="22">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" t="n" s="23">
-        <v>30559.00321759259</v>
+        <v>33046.73743055556</v>
       </c>
       <c r="D48" s="23"/>
       <c r="E48" t="n" s="23">
-        <v>5096.0</v>
+        <v>5729.0</v>
       </c>
       <c r="F48" s="23"/>
       <c r="G48" t="n" s="23">
-        <v>5235.0</v>
+        <v>10230.0</v>
       </c>
       <c r="H48" s="23"/>
       <c r="I48" t="s" s="23">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J48" s="24"/>
     </row>
     <row r="49" ht="18.0" customHeight="true">
       <c r="A49" t="s" s="22">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" t="n" s="23">
-        <v>26927.55872685185</v>
+        <v>26607.911006944443</v>
       </c>
       <c r="D49" s="23"/>
       <c r="E49" t="n" s="23">
-        <v>8443.0</v>
+        <v>2451.0</v>
       </c>
       <c r="F49" s="23"/>
       <c r="G49" t="n" s="23">
-        <v>7255.0</v>
+        <v>5231.0</v>
       </c>
       <c r="H49" s="23"/>
       <c r="I49" t="s" s="23">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="J49" s="24"/>
     </row>
     <row r="50" ht="18.0" customHeight="true">
       <c r="A50" t="s" s="22">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" t="n" s="23">
-        <v>34092.9434375</v>
+        <v>29674.453761574074</v>
       </c>
       <c r="D50" s="23"/>
       <c r="E50" t="n" s="23">
-        <v>5561.0</v>
+        <v>7865.0</v>
       </c>
       <c r="F50" s="23"/>
       <c r="G50" t="n" s="23">
-        <v>2150.0</v>
+        <v>3145.0</v>
       </c>
       <c r="H50" s="23"/>
       <c r="I50" t="s" s="23">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J50" s="24"/>
     </row>
     <row r="51" ht="18.0" customHeight="true">
       <c r="A51" t="s" s="22">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" t="n" s="23">
-        <v>35932.14487268519</v>
+        <v>31546.803310185187</v>
       </c>
       <c r="D51" s="23"/>
       <c r="E51" t="n" s="23">
-        <v>6556.0</v>
+        <v>7644.0</v>
       </c>
       <c r="F51" s="23"/>
       <c r="G51" t="n" s="23">
-        <v>9851.0</v>
+        <v>6180.0</v>
       </c>
       <c r="H51" s="23"/>
       <c r="I51" t="s" s="23">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J51" s="24"/>
     </row>
     <row r="52" ht="18.0" customHeight="true">
       <c r="A52" t="s" s="22">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" t="n" s="23">
-        <v>21834.116377314815</v>
+        <v>31597.567442129628</v>
       </c>
       <c r="D52" s="23"/>
       <c r="E52" t="n" s="23">
-        <v>2185.0</v>
+        <v>9916.0</v>
       </c>
       <c r="F52" s="23"/>
       <c r="G52" t="n" s="23">
-        <v>4224.0</v>
+        <v>5667.0</v>
       </c>
       <c r="H52" s="23"/>
       <c r="I52" t="s" s="23">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J52" s="24"/>
     </row>
     <row r="53" ht="18.0" customHeight="true">
       <c r="A53" t="s" s="22">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" t="n" s="23">
-        <v>28577.228622685187</v>
+        <v>21793.889282407406</v>
       </c>
       <c r="D53" s="23"/>
       <c r="E53" t="n" s="23">
-        <v>1473.0</v>
+        <v>1311.0</v>
       </c>
       <c r="F53" s="23"/>
       <c r="G53" t="n" s="23">
-        <v>10290.0</v>
+        <v>3167.0</v>
       </c>
       <c r="H53" s="23"/>
       <c r="I53" t="s" s="23">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J53" s="24"/>
     </row>
     <row r="54" ht="18.0" customHeight="true">
       <c r="A54" t="s" s="22">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" t="n" s="23">
-        <v>31420.169363425925</v>
+        <v>37006.267476851855</v>
       </c>
       <c r="D54" s="23"/>
       <c r="E54" t="n" s="23">
-        <v>3960.0</v>
+        <v>3852.0</v>
       </c>
       <c r="F54" s="23"/>
       <c r="G54" t="n" s="23">
-        <v>8470.0</v>
+        <v>1109.0</v>
       </c>
       <c r="H54" s="23"/>
       <c r="I54" t="s" s="23">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J54" s="24"/>
     </row>
     <row r="55" ht="18.0" customHeight="true">
       <c r="A55" t="s" s="22">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" t="n" s="23">
-        <v>34912.118113425924</v>
+        <v>22297.7221875</v>
       </c>
       <c r="D55" s="23"/>
       <c r="E55" t="n" s="23">
-        <v>5890.0</v>
+        <v>3344.0</v>
       </c>
       <c r="F55" s="23"/>
       <c r="G55" t="n" s="23">
-        <v>9443.0</v>
+        <v>5757.0</v>
       </c>
       <c r="H55" s="23"/>
       <c r="I55" t="s" s="23">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J55" s="24"/>
     </row>
     <row r="56" ht="18.0" customHeight="true">
       <c r="A56" t="s" s="22">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" t="n" s="23">
-        <v>23470.35662037037</v>
+        <v>28790.90809027778</v>
       </c>
       <c r="D56" s="23"/>
       <c r="E56" t="n" s="23">
-        <v>10043.0</v>
+        <v>4427.0</v>
       </c>
       <c r="F56" s="23"/>
       <c r="G56" t="n" s="23">
-        <v>8578.0</v>
+        <v>6015.0</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" t="s" s="23">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J56" s="24"/>
     </row>
     <row r="57" ht="18.0" customHeight="true">
       <c r="A57" t="s" s="22">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" t="n" s="23">
-        <v>29857.326631944445</v>
+        <v>27401.306689814814</v>
       </c>
       <c r="D57" s="23"/>
       <c r="E57" t="n" s="23">
-        <v>1809.0</v>
+        <v>3285.0</v>
       </c>
       <c r="F57" s="23"/>
       <c r="G57" t="n" s="23">
-        <v>3373.0</v>
+        <v>2132.0</v>
       </c>
       <c r="H57" s="23"/>
       <c r="I57" t="s" s="23">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J57" s="24"/>
     </row>
     <row r="58" ht="18.0" customHeight="true">
       <c r="A58" t="s" s="22">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" t="n" s="23">
-        <v>33620.502534722225</v>
+        <v>32665.50519675926</v>
       </c>
       <c r="D58" s="23"/>
       <c r="E58" t="n" s="23">
-        <v>5498.0</v>
+        <v>2195.0</v>
       </c>
       <c r="F58" s="23"/>
       <c r="G58" t="n" s="23">
-        <v>5865.0</v>
+        <v>5871.0</v>
       </c>
       <c r="H58" s="23"/>
       <c r="I58" t="s" s="23">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J58" s="24"/>
     </row>
     <row r="59" ht="18.0" customHeight="true">
       <c r="A59" t="s" s="22">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" t="n" s="23">
-        <v>36788.710856481484</v>
+        <v>34325.806597222225</v>
       </c>
       <c r="D59" s="23"/>
       <c r="E59" t="n" s="23">
-        <v>6882.0</v>
+        <v>8422.0</v>
       </c>
       <c r="F59" s="23"/>
       <c r="G59" t="n" s="23">
-        <v>3231.0</v>
+        <v>6965.0</v>
       </c>
       <c r="H59" s="23"/>
       <c r="I59" t="s" s="23">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J59" s="24"/>
     </row>
     <row r="60" ht="18.0" customHeight="true">
       <c r="A60" t="s" s="22">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" t="n" s="23">
-        <v>30429.407442129628</v>
+        <v>31945.16246527778</v>
       </c>
       <c r="D60" s="23"/>
       <c r="E60" t="n" s="23">
-        <v>3184.0</v>
+        <v>850.0</v>
       </c>
       <c r="F60" s="23"/>
       <c r="G60" t="n" s="23">
-        <v>4473.0</v>
+        <v>4979.0</v>
       </c>
       <c r="H60" s="23"/>
       <c r="I60" t="s" s="23">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="J60" s="24"/>
     </row>
     <row r="61" ht="18.0" customHeight="true">
       <c r="A61" t="s" s="22">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" t="n" s="23">
-        <v>33141.70484953704</v>
+        <v>37161.87630787037</v>
       </c>
       <c r="D61" s="23"/>
       <c r="E61" t="n" s="23">
-        <v>4354.0</v>
+        <v>6863.0</v>
       </c>
       <c r="F61" s="23"/>
       <c r="G61" t="n" s="23">
-        <v>2370.0</v>
+        <v>7959.0</v>
       </c>
       <c r="H61" s="23"/>
       <c r="I61" t="s" s="23">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J61" s="24"/>
     </row>
     <row r="62" ht="18.0" customHeight="true">
       <c r="A62" t="s" s="22">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" t="n" s="23">
-        <v>33396.13443287037</v>
+        <v>36862.54719907408</v>
       </c>
       <c r="D62" s="23"/>
       <c r="E62" t="n" s="23">
-        <v>1946.0</v>
+        <v>670.0</v>
       </c>
       <c r="F62" s="23"/>
       <c r="G62" t="n" s="23">
-        <v>4184.0</v>
+        <v>8724.0</v>
       </c>
       <c r="H62" s="23"/>
       <c r="I62" t="s" s="23">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="J62" s="24"/>
     </row>
     <row r="63" ht="18.0" customHeight="true">
       <c r="A63" t="s" s="22">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" t="n" s="23">
-        <v>33872.1856712963</v>
+        <v>24441.409675925926</v>
       </c>
       <c r="D63" s="23"/>
       <c r="E63" t="n" s="23">
-        <v>9292.0</v>
+        <v>7464.0</v>
       </c>
       <c r="F63" s="23"/>
       <c r="G63" t="n" s="23">
-        <v>3391.0</v>
+        <v>9586.0</v>
       </c>
       <c r="H63" s="23"/>
       <c r="I63" t="s" s="23">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J63" s="24"/>
     </row>
     <row r="64" ht="18.0" customHeight="true">
       <c r="A64" t="s" s="22">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" t="n" s="23">
-        <v>27729.655</v>
+        <v>25617.585578703704</v>
       </c>
       <c r="D64" s="23"/>
       <c r="E64" t="n" s="23">
-        <v>5123.0</v>
+        <v>6860.0</v>
       </c>
       <c r="F64" s="23"/>
       <c r="G64" t="n" s="23">
-        <v>4184.0</v>
+        <v>1199.0</v>
       </c>
       <c r="H64" s="23"/>
       <c r="I64" t="s" s="23">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J64" s="24"/>
     </row>
     <row r="65" ht="18.0" customHeight="true">
       <c r="A65" t="s" s="22">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" t="n" s="23">
-        <v>32721.003842592592</v>
+        <v>35386.49793981481</v>
       </c>
       <c r="D65" s="23"/>
       <c r="E65" t="n" s="23">
-        <v>2310.0</v>
+        <v>5247.0</v>
       </c>
       <c r="F65" s="23"/>
       <c r="G65" t="n" s="23">
-        <v>5010.0</v>
+        <v>5829.0</v>
       </c>
       <c r="H65" s="23"/>
       <c r="I65" t="s" s="23">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J65" s="24"/>
     </row>
     <row r="66" ht="18.0" customHeight="true">
       <c r="A66" t="s" s="22">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" t="n" s="23">
-        <v>24270.9678125</v>
+        <v>26961.76715277778</v>
       </c>
       <c r="D66" s="23"/>
       <c r="E66" t="n" s="23">
-        <v>7070.0</v>
+        <v>3989.0</v>
       </c>
       <c r="F66" s="23"/>
       <c r="G66" t="n" s="23">
-        <v>2926.0</v>
+        <v>9661.0</v>
       </c>
       <c r="H66" s="23"/>
       <c r="I66" t="s" s="23">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="J66" s="24"/>
     </row>
     <row r="67" ht="18.0" customHeight="true">
       <c r="A67" t="s" s="22">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" t="n" s="23">
-        <v>26435.415335648147</v>
+        <v>35343.75640046296</v>
       </c>
       <c r="D67" s="23"/>
       <c r="E67" t="n" s="23">
-        <v>9556.0</v>
+        <v>5044.0</v>
       </c>
       <c r="F67" s="23"/>
       <c r="G67" t="n" s="23">
-        <v>1326.0</v>
+        <v>4428.0</v>
       </c>
       <c r="H67" s="23"/>
       <c r="I67" t="s" s="23">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J67" s="24"/>
     </row>
     <row r="68" ht="18.0" customHeight="true">
       <c r="A68" t="s" s="22">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" t="n" s="23">
-        <v>35384.98023148148</v>
+        <v>27745.675636574073</v>
       </c>
       <c r="D68" s="23"/>
       <c r="E68" t="n" s="23">
-        <v>7493.0</v>
+        <v>6638.0</v>
       </c>
       <c r="F68" s="23"/>
       <c r="G68" t="n" s="23">
-        <v>1372.0</v>
+        <v>5849.0</v>
       </c>
       <c r="H68" s="23"/>
       <c r="I68" t="s" s="23">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J68" s="24"/>
     </row>
     <row r="69" ht="18.0" customHeight="true">
       <c r="A69" t="s" s="22">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" t="n" s="23">
-        <v>29060.240752314814</v>
+        <v>33815.7403587963</v>
       </c>
       <c r="D69" s="23"/>
       <c r="E69" t="n" s="23">
-        <v>3645.0</v>
+        <v>6565.0</v>
       </c>
       <c r="F69" s="23"/>
       <c r="G69" t="n" s="23">
-        <v>1711.0</v>
+        <v>4950.0</v>
       </c>
       <c r="H69" s="23"/>
       <c r="I69" t="s" s="23">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="J69" s="24"/>
     </row>
     <row r="70" ht="18.0" customHeight="true">
       <c r="A70" t="s" s="22">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" t="n" s="23">
-        <v>34317.78685185185</v>
+        <v>24521.906064814815</v>
       </c>
       <c r="D70" s="23"/>
       <c r="E70" t="n" s="23">
-        <v>5331.0</v>
+        <v>8598.0</v>
       </c>
       <c r="F70" s="23"/>
       <c r="G70" t="n" s="23">
-        <v>8804.0</v>
+        <v>7576.0</v>
       </c>
       <c r="H70" s="23"/>
       <c r="I70" t="s" s="23">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="J70" s="24"/>
     </row>
     <row r="71" ht="18.0" customHeight="true">
       <c r="A71" t="s" s="22">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" t="n" s="23">
-        <v>36665.32769675926</v>
+        <v>26407.689930555556</v>
       </c>
       <c r="D71" s="23"/>
       <c r="E71" t="n" s="23">
-        <v>5925.0</v>
+        <v>3206.0</v>
       </c>
       <c r="F71" s="23"/>
       <c r="G71" t="n" s="23">
-        <v>10310.0</v>
+        <v>8361.0</v>
       </c>
       <c r="H71" s="23"/>
       <c r="I71" t="s" s="23">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="J71" s="24"/>
     </row>
     <row r="72" ht="18.0" customHeight="true">
       <c r="A72" t="s" s="22">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" t="n" s="23">
-        <v>21619.127962962964</v>
+        <v>26532.106979166667</v>
       </c>
       <c r="D72" s="23"/>
       <c r="E72" t="n" s="23">
-        <v>8438.0</v>
+        <v>4401.0</v>
       </c>
       <c r="F72" s="23"/>
       <c r="G72" t="n" s="23">
-        <v>6419.0</v>
+        <v>9556.0</v>
       </c>
       <c r="H72" s="23"/>
       <c r="I72" t="s" s="23">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="J72" s="24"/>
     </row>
     <row r="73" ht="18.0" customHeight="true">
       <c r="A73" t="s" s="22">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" t="n" s="23">
-        <v>37050.03681712963</v>
+        <v>33040.672476851854</v>
       </c>
       <c r="D73" s="23"/>
       <c r="E73" t="n" s="23">
-        <v>3923.0</v>
+        <v>8580.0</v>
       </c>
       <c r="F73" s="23"/>
       <c r="G73" t="n" s="23">
-        <v>4075.0</v>
+        <v>3818.0</v>
       </c>
       <c r="H73" s="23"/>
       <c r="I73" t="s" s="23">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J73" s="24"/>
     </row>
     <row r="74" ht="18.0" customHeight="true">
       <c r="A74" t="s" s="22">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" t="n" s="23">
-        <v>22112.127453703702</v>
+        <v>31091.974375</v>
       </c>
       <c r="D74" s="23"/>
       <c r="E74" t="n" s="23">
-        <v>7729.0</v>
+        <v>8354.0</v>
       </c>
       <c r="F74" s="23"/>
       <c r="G74" t="n" s="23">
-        <v>10328.0</v>
+        <v>7190.0</v>
       </c>
       <c r="H74" s="23"/>
       <c r="I74" t="s" s="23">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J74" s="24"/>
     </row>
     <row r="75" ht="18.0" customHeight="true">
       <c r="A75" t="s" s="22">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" t="n" s="23">
-        <v>24292.80162037037</v>
+        <v>35569.900092592594</v>
       </c>
       <c r="D75" s="23"/>
       <c r="E75" t="n" s="23">
-        <v>7686.0</v>
+        <v>1476.0</v>
       </c>
       <c r="F75" s="23"/>
       <c r="G75" t="n" s="23">
-        <v>10458.0</v>
+        <v>736.0</v>
       </c>
       <c r="H75" s="23"/>
       <c r="I75" t="s" s="23">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="J75" s="24"/>
     </row>
     <row r="76" ht="18.0" customHeight="true">
       <c r="A76" t="s" s="22">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" t="n" s="23">
-        <v>25510.475300925926</v>
+        <v>28902.79980324074</v>
       </c>
       <c r="D76" s="23"/>
       <c r="E76" t="n" s="23">
-        <v>8838.0</v>
+        <v>4415.0</v>
       </c>
       <c r="F76" s="23"/>
       <c r="G76" t="n" s="23">
-        <v>4932.0</v>
+        <v>7443.0</v>
       </c>
       <c r="H76" s="23"/>
       <c r="I76" t="s" s="23">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="J76" s="24"/>
     </row>
     <row r="77" ht="18.0" customHeight="true">
       <c r="A77" t="s" s="22">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" t="n" s="23">
-        <v>21467.969930555555</v>
+        <v>36725.545578703706</v>
       </c>
       <c r="D77" s="23"/>
       <c r="E77" t="n" s="23">
-        <v>5550.0</v>
+        <v>10479.0</v>
       </c>
       <c r="F77" s="23"/>
       <c r="G77" t="n" s="23">
-        <v>10439.0</v>
+        <v>5833.0</v>
       </c>
       <c r="H77" s="23"/>
       <c r="I77" t="s" s="23">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="J77" s="24"/>
     </row>
     <row r="78" ht="18.0" customHeight="true">
       <c r="A78" t="s" s="22">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" t="n" s="23">
-        <v>35702.33928240741</v>
+        <v>23137.20662037037</v>
       </c>
       <c r="D78" s="23"/>
       <c r="E78" t="n" s="23">
-        <v>7326.0</v>
+        <v>4133.0</v>
       </c>
       <c r="F78" s="23"/>
       <c r="G78" t="n" s="23">
-        <v>5828.0</v>
+        <v>7760.0</v>
       </c>
       <c r="H78" s="23"/>
       <c r="I78" t="s" s="23">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="J78" s="24"/>
     </row>
     <row r="79" ht="18.0" customHeight="true">
       <c r="A79" t="s" s="22">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" t="n" s="23">
-        <v>37829.42149305555</v>
+        <v>21922.041701388887</v>
       </c>
       <c r="D79" s="23"/>
       <c r="E79" t="n" s="23">
-        <v>4703.0</v>
+        <v>1386.0</v>
       </c>
       <c r="F79" s="23"/>
       <c r="G79" t="n" s="23">
-        <v>5276.0</v>
+        <v>3828.0</v>
       </c>
       <c r="H79" s="23"/>
       <c r="I79" t="s" s="23">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J79" s="24"/>
     </row>
     <row r="80" ht="18.0" customHeight="true">
       <c r="A80" t="s" s="22">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" t="n" s="23">
-        <v>31681.879247685185</v>
+        <v>34895.52423611111</v>
       </c>
       <c r="D80" s="23"/>
       <c r="E80" t="n" s="23">
-        <v>581.0</v>
+        <v>1909.0</v>
       </c>
       <c r="F80" s="23"/>
       <c r="G80" t="n" s="23">
-        <v>4280.0</v>
+        <v>1433.0</v>
       </c>
       <c r="H80" s="23"/>
       <c r="I80" t="s" s="23">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="J80" s="24"/>
     </row>
     <row r="81" ht="18.0" customHeight="true">
       <c r="A81" t="s" s="22">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" t="n" s="23">
-        <v>32684.142939814814</v>
+        <v>37498.52674768519</v>
       </c>
       <c r="D81" s="23"/>
       <c r="E81" t="n" s="23">
-        <v>2373.0</v>
+        <v>6415.0</v>
       </c>
       <c r="F81" s="23"/>
       <c r="G81" t="n" s="23">
-        <v>5539.0</v>
+        <v>9328.0</v>
       </c>
       <c r="H81" s="23"/>
       <c r="I81" t="s" s="23">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="J81" s="24"/>
     </row>
     <row r="82" ht="18.0" customHeight="true">
       <c r="A82" t="s" s="22">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" t="n" s="23">
-        <v>37570.405636574076</v>
+        <v>28408.243506944444</v>
       </c>
       <c r="D82" s="23"/>
       <c r="E82" t="n" s="23">
-        <v>2414.0</v>
+        <v>1534.0</v>
       </c>
       <c r="F82" s="23"/>
       <c r="G82" t="n" s="23">
-        <v>7763.0</v>
+        <v>6902.0</v>
       </c>
       <c r="H82" s="23"/>
       <c r="I82" t="s" s="23">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J82" s="24"/>
     </row>
     <row r="83" ht="18.0" customHeight="true">
       <c r="A83" t="s" s="22">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" t="n" s="23">
-        <v>35231.98952546297</v>
+        <v>27372.55116898148</v>
       </c>
       <c r="D83" s="23"/>
       <c r="E83" t="n" s="23">
-        <v>1912.0</v>
+        <v>6267.0</v>
       </c>
       <c r="F83" s="23"/>
       <c r="G83" t="n" s="23">
-        <v>2964.0</v>
+        <v>7731.0</v>
       </c>
       <c r="H83" s="23"/>
       <c r="I83" t="s" s="23">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="J83" s="24"/>
     </row>
     <row r="84" ht="18.0" customHeight="true">
       <c r="A84" t="s" s="22">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" t="n" s="23">
-        <v>23509.277708333335</v>
+        <v>38203.59527777778</v>
       </c>
       <c r="D84" s="23"/>
       <c r="E84" t="n" s="23">
-        <v>8983.0</v>
+        <v>4275.0</v>
       </c>
       <c r="F84" s="23"/>
       <c r="G84" t="n" s="23">
-        <v>8776.0</v>
+        <v>1196.0</v>
       </c>
       <c r="H84" s="23"/>
       <c r="I84" t="s" s="23">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J84" s="24"/>
     </row>
     <row r="85" ht="18.0" customHeight="true">
       <c r="A85" t="s" s="22">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" t="n" s="23">
-        <v>22288.94953703704</v>
+        <v>37237.01222222222</v>
       </c>
       <c r="D85" s="23"/>
       <c r="E85" t="n" s="23">
-        <v>7077.0</v>
+        <v>1921.0</v>
       </c>
       <c r="F85" s="23"/>
       <c r="G85" t="n" s="23">
-        <v>2958.0</v>
+        <v>2648.0</v>
       </c>
       <c r="H85" s="23"/>
       <c r="I85" t="s" s="23">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="J85" s="24"/>
     </row>
     <row r="86" ht="18.0" customHeight="true">
       <c r="A86" t="s" s="22">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" t="n" s="23">
-        <v>34483.39960648148</v>
+        <v>32999.328101851854</v>
       </c>
       <c r="D86" s="23"/>
       <c r="E86" t="n" s="23">
-        <v>2762.0</v>
+        <v>2192.0</v>
       </c>
       <c r="F86" s="23"/>
       <c r="G86" t="n" s="23">
-        <v>2495.0</v>
+        <v>5697.0</v>
       </c>
       <c r="H86" s="23"/>
       <c r="I86" t="s" s="23">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="J86" s="24"/>
     </row>
     <row r="87" ht="18.0" customHeight="true">
       <c r="A87" t="s" s="22">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" t="n" s="23">
-        <v>28619.329050925928</v>
+        <v>30193.20326388889</v>
       </c>
       <c r="D87" s="23"/>
       <c r="E87" t="n" s="23">
-        <v>1973.0</v>
+        <v>6492.0</v>
       </c>
       <c r="F87" s="23"/>
       <c r="G87" t="n" s="23">
-        <v>8533.0</v>
+        <v>6931.0</v>
       </c>
       <c r="H87" s="23"/>
       <c r="I87" t="s" s="23">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="J87" s="24"/>
     </row>
     <row r="88" ht="18.0" customHeight="true">
       <c r="A88" t="s" s="22">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" t="n" s="23">
-        <v>32467.64375</v>
+        <v>35436.95826388889</v>
       </c>
       <c r="D88" s="23"/>
       <c r="E88" t="n" s="23">
-        <v>5388.0</v>
+        <v>9814.0</v>
       </c>
       <c r="F88" s="23"/>
       <c r="G88" t="n" s="23">
-        <v>5028.0</v>
+        <v>1119.0</v>
       </c>
       <c r="H88" s="23"/>
       <c r="I88" t="s" s="23">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="J88" s="24"/>
     </row>
     <row r="89" ht="18.0" customHeight="true">
       <c r="A89" t="s" s="22">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" t="n" s="23">
-        <v>24162.88099537037</v>
+        <v>26361.548935185187</v>
       </c>
       <c r="D89" s="23"/>
       <c r="E89" t="n" s="23">
-        <v>3964.0</v>
+        <v>9707.0</v>
       </c>
       <c r="F89" s="23"/>
       <c r="G89" t="n" s="23">
-        <v>2972.0</v>
+        <v>2703.0</v>
       </c>
       <c r="H89" s="23"/>
       <c r="I89" t="s" s="23">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J89" s="24"/>
     </row>
     <row r="90" ht="18.0" customHeight="true">
       <c r="A90" t="s" s="22">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" t="n" s="23">
-        <v>30838.930625</v>
+        <v>32268.299745370372</v>
       </c>
       <c r="D90" s="23"/>
       <c r="E90" t="n" s="23">
-        <v>6548.0</v>
+        <v>1691.0</v>
       </c>
       <c r="F90" s="23"/>
       <c r="G90" t="n" s="23">
-        <v>1233.0</v>
+        <v>3690.0</v>
       </c>
       <c r="H90" s="23"/>
       <c r="I90" t="s" s="23">
-        <v>164</v>
+        <v>60</v>
       </c>
       <c r="J90" s="24"/>
     </row>
     <row r="91" ht="18.0" customHeight="true">
       <c r="A91" t="s" s="22">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" t="n" s="23">
-        <v>31937.93318287037</v>
+        <v>34819.86856481482</v>
       </c>
       <c r="D91" s="23"/>
       <c r="E91" t="n" s="23">
-        <v>9757.0</v>
+        <v>6251.0</v>
       </c>
       <c r="F91" s="23"/>
       <c r="G91" t="n" s="23">
-        <v>4259.0</v>
+        <v>4913.0</v>
       </c>
       <c r="H91" s="23"/>
       <c r="I91" t="s" s="23">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="J91" s="24"/>
     </row>
     <row r="92" ht="18.0" customHeight="true">
       <c r="A92" t="s" s="22">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" t="n" s="23">
-        <v>31058.17476851852</v>
+        <v>21964.820185185185</v>
       </c>
       <c r="D92" s="23"/>
       <c r="E92" t="n" s="23">
-        <v>10481.0</v>
+        <v>9240.0</v>
       </c>
       <c r="F92" s="23"/>
       <c r="G92" t="n" s="23">
-        <v>6717.0</v>
+        <v>8011.0</v>
       </c>
       <c r="H92" s="23"/>
       <c r="I92" t="s" s="23">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="J92" s="24"/>
     </row>
     <row r="93" ht="18.0" customHeight="true">
       <c r="A93" t="s" s="22">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" t="n" s="23">
-        <v>36467.819548611114</v>
+        <v>28305.854525462964</v>
       </c>
       <c r="D93" s="23"/>
       <c r="E93" t="n" s="23">
-        <v>4959.0</v>
+        <v>9149.0</v>
       </c>
       <c r="F93" s="23"/>
       <c r="G93" t="n" s="23">
-        <v>6937.0</v>
+        <v>6613.0</v>
       </c>
       <c r="H93" s="23"/>
       <c r="I93" t="s" s="23">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J93" s="24"/>
     </row>
     <row r="94" ht="18.0" customHeight="true">
       <c r="A94" t="s" s="22">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" t="n" s="23">
-        <v>26056.14429398148</v>
+        <v>23032.06278935185</v>
       </c>
       <c r="D94" s="23"/>
       <c r="E94" t="n" s="23">
-        <v>1400.0</v>
+        <v>2911.0</v>
       </c>
       <c r="F94" s="23"/>
       <c r="G94" t="n" s="23">
-        <v>9891.0</v>
+        <v>6006.0</v>
       </c>
       <c r="H94" s="23"/>
       <c r="I94" t="s" s="23">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="J94" s="24"/>
     </row>
     <row r="95" ht="18.0" customHeight="true">
       <c r="A95" t="s" s="22">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" t="n" s="23">
-        <v>34667.299988425926</v>
+        <v>24596.28199074074</v>
       </c>
       <c r="D95" s="23"/>
       <c r="E95" t="n" s="23">
-        <v>4847.0</v>
+        <v>4544.0</v>
       </c>
       <c r="F95" s="23"/>
       <c r="G95" t="n" s="23">
-        <v>10202.0</v>
+        <v>7363.0</v>
       </c>
       <c r="H95" s="23"/>
       <c r="I95" t="s" s="23">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J95" s="24"/>
     </row>
     <row r="96" ht="18.0" customHeight="true">
       <c r="A96" t="s" s="22">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" t="n" s="23">
-        <v>25476.679363425927</v>
+        <v>29484.868483796297</v>
       </c>
       <c r="D96" s="23"/>
       <c r="E96" t="n" s="23">
-        <v>8031.0</v>
+        <v>6504.0</v>
       </c>
       <c r="F96" s="23"/>
       <c r="G96" t="n" s="23">
-        <v>6683.0</v>
+        <v>6746.0</v>
       </c>
       <c r="H96" s="23"/>
       <c r="I96" t="s" s="23">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="J96" s="24"/>
     </row>
     <row r="97" ht="18.0" customHeight="true">
       <c r="A97" t="s" s="22">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" t="n" s="23">
-        <v>33347.99475694444</v>
+        <v>33823.79076388889</v>
       </c>
       <c r="D97" s="23"/>
       <c r="E97" t="n" s="23">
-        <v>8637.0</v>
+        <v>9716.0</v>
       </c>
       <c r="F97" s="23"/>
       <c r="G97" t="n" s="23">
-        <v>8482.0</v>
+        <v>5007.0</v>
       </c>
       <c r="H97" s="23"/>
       <c r="I97" t="s" s="23">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="J97" s="24"/>
     </row>
     <row r="98" ht="18.0" customHeight="true">
       <c r="A98" t="s" s="22">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" t="n" s="23">
-        <v>37192.413356481484</v>
+        <v>37438.056122685186</v>
       </c>
       <c r="D98" s="23"/>
       <c r="E98" t="n" s="23">
-        <v>2153.0</v>
+        <v>4634.0</v>
       </c>
       <c r="F98" s="23"/>
       <c r="G98" t="n" s="23">
-        <v>1622.0</v>
+        <v>1240.0</v>
       </c>
       <c r="H98" s="23"/>
       <c r="I98" t="s" s="23">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="J98" s="24"/>
     </row>
     <row r="99" ht="18.0" customHeight="true">
       <c r="A99" t="s" s="22">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" t="n" s="23">
-        <v>31675.093645833334</v>
+        <v>23085.05659722222</v>
       </c>
       <c r="D99" s="23"/>
       <c r="E99" t="n" s="23">
-        <v>4172.0</v>
+        <v>10354.0</v>
       </c>
       <c r="F99" s="23"/>
       <c r="G99" t="n" s="23">
-        <v>558.0</v>
+        <v>5144.0</v>
       </c>
       <c r="H99" s="23"/>
       <c r="I99" t="s" s="23">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="J99" s="24"/>
     </row>
     <row r="100" ht="18.0" customHeight="true">
       <c r="A100" t="s" s="22">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" t="n" s="23">
-        <v>28407.782743055555</v>
+        <v>37896.91270833334</v>
       </c>
       <c r="D100" s="23"/>
       <c r="E100" t="n" s="23">
-        <v>10400.0</v>
+        <v>10474.0</v>
       </c>
       <c r="F100" s="23"/>
       <c r="G100" t="n" s="23">
-        <v>5060.0</v>
+        <v>1972.0</v>
       </c>
       <c r="H100" s="23"/>
       <c r="I100" t="s" s="23">
-        <v>68</v>
+        <v>182</v>
       </c>
       <c r="J100" s="24"/>
     </row>
     <row r="101" ht="18.0" customHeight="true">
       <c r="A101" t="s" s="22">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" t="n" s="23">
-        <v>25176.642766203702</v>
+        <v>27432.853217592594</v>
       </c>
       <c r="D101" s="23"/>
       <c r="E101" t="n" s="23">
-        <v>8795.0</v>
+        <v>3989.0</v>
       </c>
       <c r="F101" s="23"/>
       <c r="G101" t="n" s="23">
-        <v>1266.0</v>
+        <v>2407.0</v>
       </c>
       <c r="H101" s="23"/>
       <c r="I101" t="s" s="23">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="J101" s="24"/>
     </row>
     <row r="102" ht="18.0" customHeight="true">
       <c r="A102" t="s" s="22">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" t="n" s="23">
-        <v>31022.106493055555</v>
+        <v>34198.98855324074</v>
       </c>
       <c r="D102" s="23"/>
       <c r="E102" t="n" s="23">
-        <v>2917.0</v>
+        <v>4246.0</v>
       </c>
       <c r="F102" s="23"/>
       <c r="G102" t="n" s="23">
-        <v>4920.0</v>
+        <v>4253.0</v>
       </c>
       <c r="H102" s="23"/>
       <c r="I102" t="s" s="23">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="J102" s="24"/>
     </row>
     <row r="103" ht="18.0" customHeight="true">
       <c r="A103" t="s" s="22">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" t="n" s="23">
-        <v>32034.381921296295</v>
+        <v>35050.04177083333</v>
       </c>
       <c r="D103" s="23"/>
       <c r="E103" t="n" s="23">
-        <v>9081.0</v>
+        <v>3625.0</v>
       </c>
       <c r="F103" s="23"/>
       <c r="G103" t="n" s="23">
-        <v>2438.0</v>
+        <v>9080.0</v>
       </c>
       <c r="H103" s="23"/>
       <c r="I103" t="s" s="23">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="J103" s="24"/>
     </row>
     <row r="104" ht="18.0" customHeight="true">
       <c r="A104" t="s" s="22">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" t="n" s="23">
-        <v>37278.39366898148</v>
+        <v>26666.100347222222</v>
       </c>
       <c r="D104" s="23"/>
       <c r="E104" t="n" s="23">
-        <v>7092.0</v>
+        <v>9034.0</v>
       </c>
       <c r="F104" s="23"/>
       <c r="G104" t="n" s="23">
-        <v>1554.0</v>
+        <v>2218.0</v>
       </c>
       <c r="H104" s="23"/>
       <c r="I104" t="s" s="23">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="J104" s="24"/>
     </row>
     <row r="105" ht="18.0" customHeight="true">
       <c r="A105" t="s" s="22">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" t="n" s="23">
-        <v>34360.967141203706</v>
+        <v>33692.34755787037</v>
       </c>
       <c r="D105" s="23"/>
       <c r="E105" t="n" s="23">
-        <v>2570.0</v>
+        <v>5648.0</v>
       </c>
       <c r="F105" s="23"/>
       <c r="G105" t="n" s="23">
-        <v>8246.0</v>
+        <v>3469.0</v>
       </c>
       <c r="H105" s="23"/>
       <c r="I105" t="s" s="23">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="J105" s="24"/>
     </row>
     <row r="106" ht="18.0" customHeight="true">
       <c r="A106" t="s" s="22">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" t="n" s="23">
-        <v>38136.05258101852</v>
+        <v>26247.283125</v>
       </c>
       <c r="D106" s="23"/>
       <c r="E106" t="n" s="23">
-        <v>10361.0</v>
+        <v>9578.0</v>
       </c>
       <c r="F106" s="23"/>
       <c r="G106" t="n" s="23">
-        <v>8291.0</v>
+        <v>8781.0</v>
       </c>
       <c r="H106" s="23"/>
       <c r="I106" t="s" s="23">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J106" s="24"/>
     </row>
     <row r="107" ht="18.0" customHeight="true">
       <c r="A107" t="s" s="22">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" t="n" s="23">
-        <v>25509.643263888887</v>
+        <v>29914.882094907407</v>
       </c>
       <c r="D107" s="23"/>
       <c r="E107" t="n" s="23">
-        <v>4841.0</v>
+        <v>8811.0</v>
       </c>
       <c r="F107" s="23"/>
       <c r="G107" t="n" s="23">
-        <v>1007.0</v>
+        <v>2589.0</v>
       </c>
       <c r="H107" s="23"/>
       <c r="I107" t="s" s="23">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="J107" s="24"/>
     </row>
     <row r="108" ht="18.0" customHeight="true">
       <c r="A108" t="s" s="22">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" t="n" s="23">
-        <v>32846.00608796296</v>
+        <v>31697.685891203702</v>
       </c>
       <c r="D108" s="23"/>
       <c r="E108" t="n" s="23">
-        <v>4434.0</v>
+        <v>8385.0</v>
       </c>
       <c r="F108" s="23"/>
       <c r="G108" t="n" s="23">
-        <v>4028.0</v>
+        <v>7984.0</v>
       </c>
       <c r="H108" s="23"/>
       <c r="I108" t="s" s="23">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="J108" s="24"/>
     </row>
     <row r="109" ht="18.0" customHeight="true">
       <c r="A109" t="s" s="22">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" t="n" s="23">
-        <v>31641.396666666667</v>
+        <v>36659.083715277775</v>
       </c>
       <c r="D109" s="23"/>
       <c r="E109" t="n" s="23">
-        <v>602.0</v>
+        <v>8830.0</v>
       </c>
       <c r="F109" s="23"/>
       <c r="G109" t="n" s="23">
-        <v>5936.0</v>
+        <v>9165.0</v>
       </c>
       <c r="H109" s="23"/>
       <c r="I109" t="s" s="23">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="J109" s="24"/>
     </row>
     <row r="110" ht="18.0" customHeight="true">
       <c r="A110" t="s" s="22">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" t="n" s="23">
-        <v>37524.210173611114</v>
+        <v>24773.582916666666</v>
       </c>
       <c r="D110" s="23"/>
       <c r="E110" t="n" s="23">
-        <v>5828.0</v>
+        <v>6560.0</v>
       </c>
       <c r="F110" s="23"/>
       <c r="G110" t="n" s="23">
-        <v>3575.0</v>
+        <v>3795.0</v>
       </c>
       <c r="H110" s="23"/>
       <c r="I110" t="s" s="23">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="J110" s="24"/>
     </row>
     <row r="111" ht="18.0" customHeight="true">
       <c r="A111" t="s" s="22">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" t="n" s="23">
-        <v>25921.696064814816</v>
+        <v>25977.57414351852</v>
       </c>
       <c r="D111" s="23"/>
       <c r="E111" t="n" s="23">
-        <v>787.0</v>
+        <v>7755.0</v>
       </c>
       <c r="F111" s="23"/>
       <c r="G111" t="n" s="23">
-        <v>1016.0</v>
+        <v>2797.0</v>
       </c>
       <c r="H111" s="23"/>
       <c r="I111" t="s" s="23">
-        <v>197</v>
+        <v>102</v>
       </c>
       <c r="J111" s="24"/>
     </row>
@@ -4144,107 +4120,107 @@
       </c>
       <c r="B112" s="23"/>
       <c r="C112" t="n" s="23">
-        <v>36256.14094907408</v>
+        <v>35715.00077546296</v>
       </c>
       <c r="D112" s="23"/>
       <c r="E112" t="n" s="23">
-        <v>677.0</v>
+        <v>3890.0</v>
       </c>
       <c r="F112" s="23"/>
       <c r="G112" t="n" s="23">
-        <v>8592.0</v>
+        <v>6962.0</v>
       </c>
       <c r="H112" s="23"/>
       <c r="I112" t="s" s="23">
-        <v>103</v>
+        <v>199</v>
       </c>
       <c r="J112" s="24"/>
     </row>
     <row r="113" ht="18.0" customHeight="true">
       <c r="A113" t="s" s="22">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" t="n" s="23">
-        <v>38086.61724537037</v>
+        <v>35207.762604166666</v>
       </c>
       <c r="D113" s="23"/>
       <c r="E113" t="n" s="23">
-        <v>6214.0</v>
+        <v>3734.0</v>
       </c>
       <c r="F113" s="23"/>
       <c r="G113" t="n" s="23">
-        <v>4919.0</v>
+        <v>9662.0</v>
       </c>
       <c r="H113" s="23"/>
       <c r="I113" t="s" s="23">
-        <v>63</v>
+        <v>201</v>
       </c>
       <c r="J113" s="24"/>
     </row>
     <row r="114" ht="18.0" customHeight="true">
       <c r="A114" t="s" s="22">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" t="n" s="23">
-        <v>30176.4578125</v>
+        <v>34876.579050925924</v>
       </c>
       <c r="D114" s="23"/>
       <c r="E114" t="n" s="23">
-        <v>8965.0</v>
+        <v>1970.0</v>
       </c>
       <c r="F114" s="23"/>
       <c r="G114" t="n" s="23">
-        <v>7155.0</v>
+        <v>3789.0</v>
       </c>
       <c r="H114" s="23"/>
       <c r="I114" t="s" s="23">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="J114" s="24"/>
     </row>
     <row r="115" ht="18.0" customHeight="true">
       <c r="A115" t="s" s="22">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" t="n" s="23">
-        <v>34041.87465277778</v>
+        <v>28347.092060185187</v>
       </c>
       <c r="D115" s="23"/>
       <c r="E115" t="n" s="23">
-        <v>10212.0</v>
+        <v>3371.0</v>
       </c>
       <c r="F115" s="23"/>
       <c r="G115" t="n" s="23">
-        <v>10373.0</v>
+        <v>9674.0</v>
       </c>
       <c r="H115" s="23"/>
       <c r="I115" t="s" s="23">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="J115" s="24"/>
     </row>
     <row r="116" ht="18.0" customHeight="true">
       <c r="A116" t="s" s="22">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" t="n" s="23">
-        <v>25774.880416666667</v>
+        <v>26389.20318287037</v>
       </c>
       <c r="D116" s="23"/>
       <c r="E116" t="n" s="23">
-        <v>9399.0</v>
+        <v>9940.0</v>
       </c>
       <c r="F116" s="23"/>
       <c r="G116" t="n" s="23">
-        <v>5126.0</v>
+        <v>2944.0</v>
       </c>
       <c r="H116" s="23"/>
       <c r="I116" t="s" s="23">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="J116" s="24"/>
     </row>
@@ -4254,15 +4230,15 @@
       </c>
       <c r="B117" s="23"/>
       <c r="C117" t="n" s="23">
-        <v>36964.95711805556</v>
+        <v>23805.267233796298</v>
       </c>
       <c r="D117" s="23"/>
       <c r="E117" t="n" s="23">
-        <v>6221.0</v>
+        <v>9105.0</v>
       </c>
       <c r="F117" s="23"/>
       <c r="G117" t="n" s="23">
-        <v>1995.0</v>
+        <v>2027.0</v>
       </c>
       <c r="H117" s="23"/>
       <c r="I117" t="s" s="23">
@@ -4276,85 +4252,85 @@
       </c>
       <c r="B118" s="23"/>
       <c r="C118" t="n" s="23">
-        <v>26488.48414351852</v>
+        <v>21606.002372685187</v>
       </c>
       <c r="D118" s="23"/>
       <c r="E118" t="n" s="23">
-        <v>9345.0</v>
+        <v>1192.0</v>
       </c>
       <c r="F118" s="23"/>
       <c r="G118" t="n" s="23">
-        <v>2835.0</v>
+        <v>3381.0</v>
       </c>
       <c r="H118" s="23"/>
       <c r="I118" t="s" s="23">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="J118" s="24"/>
     </row>
     <row r="119" ht="18.0" customHeight="true">
       <c r="A119" t="s" s="22">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" t="n" s="23">
-        <v>26847.299375</v>
+        <v>28801.302743055556</v>
       </c>
       <c r="D119" s="23"/>
       <c r="E119" t="n" s="23">
-        <v>4949.0</v>
+        <v>8861.0</v>
       </c>
       <c r="F119" s="23"/>
       <c r="G119" t="n" s="23">
-        <v>2724.0</v>
+        <v>9893.0</v>
       </c>
       <c r="H119" s="23"/>
       <c r="I119" t="s" s="23">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J119" s="24"/>
     </row>
     <row r="120" ht="18.0" customHeight="true">
       <c r="A120" t="s" s="22">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" t="n" s="23">
-        <v>27108.50369212963</v>
+        <v>35596.1753125</v>
       </c>
       <c r="D120" s="23"/>
       <c r="E120" t="n" s="23">
-        <v>9831.0</v>
+        <v>951.0</v>
       </c>
       <c r="F120" s="23"/>
       <c r="G120" t="n" s="23">
-        <v>9706.0</v>
+        <v>9813.0</v>
       </c>
       <c r="H120" s="23"/>
       <c r="I120" t="s" s="23">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J120" s="24"/>
     </row>
     <row r="121" ht="18.0" customHeight="true">
       <c r="A121" t="s" s="22">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" t="n" s="23">
-        <v>21919.83361111111</v>
+        <v>28979.49983796296</v>
       </c>
       <c r="D121" s="23"/>
       <c r="E121" t="n" s="23">
-        <v>2013.0</v>
+        <v>7343.0</v>
       </c>
       <c r="F121" s="23"/>
       <c r="G121" t="n" s="23">
-        <v>3702.0</v>
+        <v>1950.0</v>
       </c>
       <c r="H121" s="23"/>
       <c r="I121" t="s" s="23">
-        <v>56</v>
+        <v>213</v>
       </c>
       <c r="J121" s="24"/>
     </row>
@@ -4364,15 +4340,15 @@
       </c>
       <c r="B122" s="23"/>
       <c r="C122" t="n" s="23">
-        <v>32372.601967592593</v>
+        <v>38443.575949074075</v>
       </c>
       <c r="D122" s="23"/>
       <c r="E122" t="n" s="23">
-        <v>6220.0</v>
+        <v>6437.0</v>
       </c>
       <c r="F122" s="23"/>
       <c r="G122" t="n" s="23">
-        <v>1223.0</v>
+        <v>9079.0</v>
       </c>
       <c r="H122" s="23"/>
       <c r="I122" t="s" s="23">
@@ -4386,63 +4362,63 @@
       </c>
       <c r="B123" s="23"/>
       <c r="C123" t="n" s="23">
-        <v>35058.57399305556</v>
+        <v>26797.74116898148</v>
       </c>
       <c r="D123" s="23"/>
       <c r="E123" t="n" s="23">
-        <v>2308.0</v>
+        <v>9538.0</v>
       </c>
       <c r="F123" s="23"/>
       <c r="G123" t="n" s="23">
-        <v>9487.0</v>
+        <v>8168.0</v>
       </c>
       <c r="H123" s="23"/>
       <c r="I123" t="s" s="23">
-        <v>217</v>
+        <v>58</v>
       </c>
       <c r="J123" s="24"/>
     </row>
     <row r="124" ht="18.0" customHeight="true">
       <c r="A124" t="s" s="22">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" t="n" s="23">
-        <v>25692.46136574074</v>
+        <v>35279.29253472222</v>
       </c>
       <c r="D124" s="23"/>
       <c r="E124" t="n" s="23">
-        <v>1703.0</v>
+        <v>9475.0</v>
       </c>
       <c r="F124" s="23"/>
       <c r="G124" t="n" s="23">
-        <v>7904.0</v>
+        <v>5010.0</v>
       </c>
       <c r="H124" s="23"/>
       <c r="I124" t="s" s="23">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J124" s="24"/>
     </row>
     <row r="125" ht="18.0" customHeight="true">
       <c r="A125" t="s" s="22">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" t="n" s="23">
-        <v>30560.394641203704</v>
+        <v>28146.13224537037</v>
       </c>
       <c r="D125" s="23"/>
       <c r="E125" t="n" s="23">
-        <v>9441.0</v>
+        <v>6657.0</v>
       </c>
       <c r="F125" s="23"/>
       <c r="G125" t="n" s="23">
-        <v>1591.0</v>
+        <v>9654.0</v>
       </c>
       <c r="H125" s="23"/>
       <c r="I125" t="s" s="23">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="J125" s="24"/>
     </row>
@@ -4452,15 +4428,15 @@
       </c>
       <c r="B126" s="23"/>
       <c r="C126" t="n" s="23">
-        <v>29262.934675925924</v>
+        <v>38267.031956018516</v>
       </c>
       <c r="D126" s="23"/>
       <c r="E126" t="n" s="23">
-        <v>8707.0</v>
+        <v>9820.0</v>
       </c>
       <c r="F126" s="23"/>
       <c r="G126" t="n" s="23">
-        <v>8892.0</v>
+        <v>9653.0</v>
       </c>
       <c r="H126" s="23"/>
       <c r="I126" t="s" s="23">
@@ -4474,19 +4450,19 @@
       </c>
       <c r="B127" s="23"/>
       <c r="C127" t="n" s="23">
-        <v>32024.568344907406</v>
+        <v>31612.44699074074</v>
       </c>
       <c r="D127" s="23"/>
       <c r="E127" t="n" s="23">
-        <v>9125.0</v>
+        <v>6285.0</v>
       </c>
       <c r="F127" s="23"/>
       <c r="G127" t="n" s="23">
-        <v>8390.0</v>
+        <v>8431.0</v>
       </c>
       <c r="H127" s="23"/>
       <c r="I127" t="s" s="23">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="J127" s="24"/>
     </row>
@@ -4496,15 +4472,15 @@
       </c>
       <c r="B128" s="23"/>
       <c r="C128" t="n" s="23">
-        <v>34186.90592592592</v>
+        <v>32625.513217592594</v>
       </c>
       <c r="D128" s="23"/>
       <c r="E128" t="n" s="23">
-        <v>10388.0</v>
+        <v>9016.0</v>
       </c>
       <c r="F128" s="23"/>
       <c r="G128" t="n" s="23">
-        <v>2724.0</v>
+        <v>3633.0</v>
       </c>
       <c r="H128" s="23"/>
       <c r="I128" t="s" s="23">
@@ -4518,63 +4494,63 @@
       </c>
       <c r="B129" s="23"/>
       <c r="C129" t="n" s="23">
-        <v>33810.96839120371</v>
+        <v>34534.456354166665</v>
       </c>
       <c r="D129" s="23"/>
       <c r="E129" t="n" s="23">
-        <v>7156.0</v>
+        <v>9368.0</v>
       </c>
       <c r="F129" s="23"/>
       <c r="G129" t="n" s="23">
-        <v>7607.0</v>
+        <v>6239.0</v>
       </c>
       <c r="H129" s="23"/>
       <c r="I129" t="s" s="23">
-        <v>227</v>
+        <v>120</v>
       </c>
       <c r="J129" s="24"/>
     </row>
     <row r="130" ht="18.0" customHeight="true">
       <c r="A130" t="s" s="22">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" t="n" s="23">
-        <v>33312.646527777775</v>
+        <v>28912.90556712963</v>
       </c>
       <c r="D130" s="23"/>
       <c r="E130" t="n" s="23">
-        <v>7400.0</v>
+        <v>642.0</v>
       </c>
       <c r="F130" s="23"/>
       <c r="G130" t="n" s="23">
-        <v>7742.0</v>
+        <v>3994.0</v>
       </c>
       <c r="H130" s="23"/>
       <c r="I130" t="s" s="23">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="J130" s="24"/>
     </row>
     <row r="131" ht="18.0" customHeight="true">
       <c r="A131" t="s" s="22">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" t="n" s="23">
-        <v>31710.663958333334</v>
+        <v>35651.87615740741</v>
       </c>
       <c r="D131" s="23"/>
       <c r="E131" t="n" s="23">
-        <v>3077.0</v>
+        <v>6545.0</v>
       </c>
       <c r="F131" s="23"/>
       <c r="G131" t="n" s="23">
-        <v>3849.0</v>
+        <v>5399.0</v>
       </c>
       <c r="H131" s="23"/>
       <c r="I131" t="s" s="23">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="J131" s="24"/>
     </row>
@@ -4584,85 +4560,85 @@
       </c>
       <c r="B132" s="23"/>
       <c r="C132" t="n" s="23">
-        <v>37332.944652777776</v>
+        <v>32164.381932870372</v>
       </c>
       <c r="D132" s="23"/>
       <c r="E132" t="n" s="23">
-        <v>9332.0</v>
+        <v>4364.0</v>
       </c>
       <c r="F132" s="23"/>
       <c r="G132" t="n" s="23">
-        <v>9536.0</v>
+        <v>1603.0</v>
       </c>
       <c r="H132" s="23"/>
       <c r="I132" t="s" s="23">
-        <v>141</v>
+        <v>231</v>
       </c>
       <c r="J132" s="24"/>
     </row>
     <row r="133" ht="18.0" customHeight="true">
       <c r="A133" t="s" s="22">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B133" s="23"/>
       <c r="C133" t="n" s="23">
-        <v>24682.31519675926</v>
+        <v>26987.688564814816</v>
       </c>
       <c r="D133" s="23"/>
       <c r="E133" t="n" s="23">
-        <v>4982.0</v>
+        <v>8146.0</v>
       </c>
       <c r="F133" s="23"/>
       <c r="G133" t="n" s="23">
-        <v>6978.0</v>
+        <v>9175.0</v>
       </c>
       <c r="H133" s="23"/>
       <c r="I133" t="s" s="23">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="J133" s="24"/>
     </row>
     <row r="134" ht="18.0" customHeight="true">
       <c r="A134" t="s" s="22">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B134" s="23"/>
       <c r="C134" t="n" s="23">
-        <v>26674.914375</v>
+        <v>33055.760833333334</v>
       </c>
       <c r="D134" s="23"/>
       <c r="E134" t="n" s="23">
-        <v>2354.0</v>
+        <v>2678.0</v>
       </c>
       <c r="F134" s="23"/>
       <c r="G134" t="n" s="23">
-        <v>1540.0</v>
+        <v>2657.0</v>
       </c>
       <c r="H134" s="23"/>
       <c r="I134" t="s" s="23">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J134" s="24"/>
     </row>
     <row r="135" ht="18.0" customHeight="true">
       <c r="A135" t="s" s="22">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B135" s="23"/>
       <c r="C135" t="n" s="23">
-        <v>23153.745590277777</v>
+        <v>22966.750949074074</v>
       </c>
       <c r="D135" s="23"/>
       <c r="E135" t="n" s="23">
-        <v>4116.0</v>
+        <v>9700.0</v>
       </c>
       <c r="F135" s="23"/>
       <c r="G135" t="n" s="23">
-        <v>8545.0</v>
+        <v>6676.0</v>
       </c>
       <c r="H135" s="23"/>
       <c r="I135" t="s" s="23">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="J135" s="24"/>
     </row>
@@ -4672,41 +4648,41 @@
       </c>
       <c r="B136" s="23"/>
       <c r="C136" t="n" s="23">
-        <v>22536.82353009259</v>
+        <v>24472.53415509259</v>
       </c>
       <c r="D136" s="23"/>
       <c r="E136" t="n" s="23">
-        <v>1880.0</v>
+        <v>4321.0</v>
       </c>
       <c r="F136" s="23"/>
       <c r="G136" t="n" s="23">
-        <v>9383.0</v>
+        <v>6805.0</v>
       </c>
       <c r="H136" s="23"/>
       <c r="I136" t="s" s="23">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="J136" s="24"/>
     </row>
     <row r="137" ht="18.0" customHeight="true">
       <c r="A137" t="s" s="22">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B137" s="23"/>
       <c r="C137" t="n" s="23">
-        <v>27602.872824074075</v>
+        <v>29991.055787037036</v>
       </c>
       <c r="D137" s="23"/>
       <c r="E137" t="n" s="23">
-        <v>6089.0</v>
+        <v>10001.0</v>
       </c>
       <c r="F137" s="23"/>
       <c r="G137" t="n" s="23">
-        <v>2269.0</v>
+        <v>8348.0</v>
       </c>
       <c r="H137" s="23"/>
       <c r="I137" t="s" s="23">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c r="J137" s="24"/>
     </row>
@@ -4716,129 +4692,129 @@
       </c>
       <c r="B138" s="23"/>
       <c r="C138" t="n" s="23">
-        <v>28737.8896875</v>
+        <v>22488.796354166665</v>
       </c>
       <c r="D138" s="23"/>
       <c r="E138" t="n" s="23">
-        <v>10366.0</v>
+        <v>1801.0</v>
       </c>
       <c r="F138" s="23"/>
       <c r="G138" t="n" s="23">
-        <v>7010.0</v>
+        <v>728.0</v>
       </c>
       <c r="H138" s="23"/>
       <c r="I138" t="s" s="23">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="J138" s="24"/>
     </row>
     <row r="139" ht="18.0" customHeight="true">
       <c r="A139" t="s" s="22">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B139" s="23"/>
       <c r="C139" t="n" s="23">
-        <v>31235.282314814816</v>
+        <v>33075.41736111111</v>
       </c>
       <c r="D139" s="23"/>
       <c r="E139" t="n" s="23">
-        <v>2774.0</v>
+        <v>4176.0</v>
       </c>
       <c r="F139" s="23"/>
       <c r="G139" t="n" s="23">
-        <v>9983.0</v>
+        <v>7000.0</v>
       </c>
       <c r="H139" s="23"/>
       <c r="I139" t="s" s="23">
-        <v>143</v>
+        <v>242</v>
       </c>
       <c r="J139" s="24"/>
     </row>
     <row r="140" ht="18.0" customHeight="true">
       <c r="A140" t="s" s="22">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B140" s="23"/>
       <c r="C140" t="n" s="23">
-        <v>26043.02896990741</v>
+        <v>38057.22090277778</v>
       </c>
       <c r="D140" s="23"/>
       <c r="E140" t="n" s="23">
-        <v>4424.0</v>
+        <v>4674.0</v>
       </c>
       <c r="F140" s="23"/>
       <c r="G140" t="n" s="23">
-        <v>10030.0</v>
+        <v>2296.0</v>
       </c>
       <c r="H140" s="23"/>
       <c r="I140" t="s" s="23">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J140" s="24"/>
     </row>
     <row r="141" ht="18.0" customHeight="true">
       <c r="A141" t="s" s="22">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B141" s="23"/>
       <c r="C141" t="n" s="23">
-        <v>35379.12978009259</v>
+        <v>22714.839189814815</v>
       </c>
       <c r="D141" s="23"/>
       <c r="E141" t="n" s="23">
-        <v>1389.0</v>
+        <v>2497.0</v>
       </c>
       <c r="F141" s="23"/>
       <c r="G141" t="n" s="23">
-        <v>829.0</v>
+        <v>4589.0</v>
       </c>
       <c r="H141" s="23"/>
       <c r="I141" t="s" s="23">
-        <v>244</v>
+        <v>43</v>
       </c>
       <c r="J141" s="24"/>
     </row>
     <row r="142" ht="18.0" customHeight="true">
       <c r="A142" t="s" s="22">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B142" s="23"/>
       <c r="C142" t="n" s="23">
-        <v>28451.35775462963</v>
+        <v>23363.068206018517</v>
       </c>
       <c r="D142" s="23"/>
       <c r="E142" t="n" s="23">
-        <v>6310.0</v>
+        <v>6372.0</v>
       </c>
       <c r="F142" s="23"/>
       <c r="G142" t="n" s="23">
-        <v>7519.0</v>
+        <v>1364.0</v>
       </c>
       <c r="H142" s="23"/>
       <c r="I142" t="s" s="23">
-        <v>59</v>
+        <v>231</v>
       </c>
       <c r="J142" s="24"/>
     </row>
     <row r="143" ht="18.0" customHeight="true">
       <c r="A143" t="s" s="22">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B143" s="23"/>
       <c r="C143" t="n" s="23">
-        <v>33388.908784722225</v>
+        <v>30897.50857638889</v>
       </c>
       <c r="D143" s="23"/>
       <c r="E143" t="n" s="23">
-        <v>826.0</v>
+        <v>4058.0</v>
       </c>
       <c r="F143" s="23"/>
       <c r="G143" t="n" s="23">
-        <v>3562.0</v>
+        <v>7134.0</v>
       </c>
       <c r="H143" s="23"/>
       <c r="I143" t="s" s="23">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="J143" s="24"/>
     </row>
@@ -4848,19 +4824,19 @@
       </c>
       <c r="B144" s="23"/>
       <c r="C144" t="n" s="23">
-        <v>37836.13099537037</v>
+        <v>32012.66380787037</v>
       </c>
       <c r="D144" s="23"/>
       <c r="E144" t="n" s="23">
-        <v>10231.0</v>
+        <v>7424.0</v>
       </c>
       <c r="F144" s="23"/>
       <c r="G144" t="n" s="23">
-        <v>3281.0</v>
+        <v>2970.0</v>
       </c>
       <c r="H144" s="23"/>
       <c r="I144" t="s" s="23">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="J144" s="24"/>
     </row>
@@ -4870,41 +4846,41 @@
       </c>
       <c r="B145" s="23"/>
       <c r="C145" t="n" s="23">
-        <v>28670.20542824074</v>
+        <v>25446.634976851852</v>
       </c>
       <c r="D145" s="23"/>
       <c r="E145" t="n" s="23">
-        <v>7413.0</v>
+        <v>6538.0</v>
       </c>
       <c r="F145" s="23"/>
       <c r="G145" t="n" s="23">
-        <v>6287.0</v>
+        <v>7730.0</v>
       </c>
       <c r="H145" s="23"/>
       <c r="I145" t="s" s="23">
-        <v>162</v>
+        <v>250</v>
       </c>
       <c r="J145" s="24"/>
     </row>
     <row r="146" ht="18.0" customHeight="true">
       <c r="A146" t="s" s="22">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B146" s="23"/>
       <c r="C146" t="n" s="23">
-        <v>35843.74265046296</v>
+        <v>24279.464560185184</v>
       </c>
       <c r="D146" s="23"/>
       <c r="E146" t="n" s="23">
-        <v>1074.0</v>
+        <v>9012.0</v>
       </c>
       <c r="F146" s="23"/>
       <c r="G146" t="n" s="23">
-        <v>9912.0</v>
+        <v>9993.0</v>
       </c>
       <c r="H146" s="23"/>
       <c r="I146" t="s" s="23">
-        <v>251</v>
+        <v>170</v>
       </c>
       <c r="J146" s="24"/>
     </row>
@@ -4914,15 +4890,15 @@
       </c>
       <c r="B147" s="23"/>
       <c r="C147" t="n" s="23">
-        <v>21854.835185185184</v>
+        <v>35495.22827546296</v>
       </c>
       <c r="D147" s="23"/>
       <c r="E147" t="n" s="23">
-        <v>9631.0</v>
+        <v>3134.0</v>
       </c>
       <c r="F147" s="23"/>
       <c r="G147" t="n" s="23">
-        <v>8017.0</v>
+        <v>4430.0</v>
       </c>
       <c r="H147" s="23"/>
       <c r="I147" t="s" s="23">
@@ -4936,19 +4912,19 @@
       </c>
       <c r="B148" s="23"/>
       <c r="C148" t="n" s="23">
-        <v>33667.25087962963</v>
+        <v>28074.99162037037</v>
       </c>
       <c r="D148" s="23"/>
       <c r="E148" t="n" s="23">
-        <v>6048.0</v>
+        <v>4052.0</v>
       </c>
       <c r="F148" s="23"/>
       <c r="G148" t="n" s="23">
-        <v>1435.0</v>
+        <v>982.0</v>
       </c>
       <c r="H148" s="23"/>
       <c r="I148" t="s" s="23">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="J148" s="24"/>
     </row>
@@ -4958,15 +4934,15 @@
       </c>
       <c r="B149" s="23"/>
       <c r="C149" t="n" s="23">
-        <v>34569.70034722222</v>
+        <v>33391.72256944444</v>
       </c>
       <c r="D149" s="23"/>
       <c r="E149" t="n" s="23">
-        <v>1828.0</v>
+        <v>9063.0</v>
       </c>
       <c r="F149" s="23"/>
       <c r="G149" t="n" s="23">
-        <v>9510.0</v>
+        <v>9411.0</v>
       </c>
       <c r="H149" s="23"/>
       <c r="I149" t="s" s="23">
@@ -4980,19 +4956,19 @@
       </c>
       <c r="B150" s="23"/>
       <c r="C150" t="n" s="23">
-        <v>23518.638993055556</v>
+        <v>35215.77444444445</v>
       </c>
       <c r="D150" s="23"/>
       <c r="E150" t="n" s="23">
-        <v>6554.0</v>
+        <v>6634.0</v>
       </c>
       <c r="F150" s="23"/>
       <c r="G150" t="n" s="23">
-        <v>1552.0</v>
+        <v>3472.0</v>
       </c>
       <c r="H150" s="23"/>
       <c r="I150" t="s" s="23">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J150" s="24"/>
     </row>
@@ -5002,15 +4978,15 @@
       </c>
       <c r="B151" s="23"/>
       <c r="C151" t="n" s="23">
-        <v>35985.383993055555</v>
+        <v>36459.47775462963</v>
       </c>
       <c r="D151" s="23"/>
       <c r="E151" t="n" s="23">
-        <v>7192.0</v>
+        <v>4819.0</v>
       </c>
       <c r="F151" s="23"/>
       <c r="G151" t="n" s="23">
-        <v>4607.0</v>
+        <v>4963.0</v>
       </c>
       <c r="H151" s="23"/>
       <c r="I151" t="s" s="23">
@@ -5024,19 +5000,19 @@
       </c>
       <c r="B152" s="23"/>
       <c r="C152" t="n" s="23">
-        <v>23797.462858796298</v>
+        <v>23033.74193287037</v>
       </c>
       <c r="D152" s="23"/>
       <c r="E152" t="n" s="23">
-        <v>515.0</v>
+        <v>9328.0</v>
       </c>
       <c r="F152" s="23"/>
       <c r="G152" t="n" s="23">
-        <v>2432.0</v>
+        <v>1864.0</v>
       </c>
       <c r="H152" s="23"/>
       <c r="I152" t="s" s="23">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="J152" s="24"/>
     </row>
@@ -5046,15 +5022,15 @@
       </c>
       <c r="B153" s="23"/>
       <c r="C153" t="n" s="23">
-        <v>29470.27199074074</v>
+        <v>28461.39800925926</v>
       </c>
       <c r="D153" s="23"/>
       <c r="E153" t="n" s="23">
-        <v>9367.0</v>
+        <v>6593.0</v>
       </c>
       <c r="F153" s="23"/>
       <c r="G153" t="n" s="23">
-        <v>1252.0</v>
+        <v>5773.0</v>
       </c>
       <c r="H153" s="23"/>
       <c r="I153" t="s" s="23">
@@ -5068,15 +5044,15 @@
       </c>
       <c r="B154" s="23"/>
       <c r="C154" t="n" s="23">
-        <v>29073.040717592594</v>
+        <v>27368.672800925928</v>
       </c>
       <c r="D154" s="23"/>
       <c r="E154" t="n" s="23">
-        <v>9833.0</v>
+        <v>2294.0</v>
       </c>
       <c r="F154" s="23"/>
       <c r="G154" t="n" s="23">
-        <v>6522.0</v>
+        <v>3400.0</v>
       </c>
       <c r="H154" s="23"/>
       <c r="I154" t="s" s="23">
@@ -5090,19 +5066,19 @@
       </c>
       <c r="B155" s="23"/>
       <c r="C155" t="n" s="23">
-        <v>26268.139282407406</v>
+        <v>35761.42967592592</v>
       </c>
       <c r="D155" s="23"/>
       <c r="E155" t="n" s="23">
-        <v>10405.0</v>
+        <v>932.0</v>
       </c>
       <c r="F155" s="23"/>
       <c r="G155" t="n" s="23">
-        <v>2272.0</v>
+        <v>869.0</v>
       </c>
       <c r="H155" s="23"/>
       <c r="I155" t="s" s="23">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="J155" s="24"/>
     </row>
@@ -5112,19 +5088,19 @@
       </c>
       <c r="B156" s="23"/>
       <c r="C156" t="n" s="23">
-        <v>30729.69287037037</v>
+        <v>33371.937002314815</v>
       </c>
       <c r="D156" s="23"/>
       <c r="E156" t="n" s="23">
-        <v>4104.0</v>
+        <v>5859.0</v>
       </c>
       <c r="F156" s="23"/>
       <c r="G156" t="n" s="23">
-        <v>2364.0</v>
+        <v>2112.0</v>
       </c>
       <c r="H156" s="23"/>
       <c r="I156" t="s" s="23">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="J156" s="24"/>
     </row>
@@ -5134,19 +5110,19 @@
       </c>
       <c r="B157" s="23"/>
       <c r="C157" t="n" s="23">
-        <v>23436.354675925926</v>
+        <v>23076.854756944445</v>
       </c>
       <c r="D157" s="23"/>
       <c r="E157" t="n" s="23">
-        <v>8958.0</v>
+        <v>6213.0</v>
       </c>
       <c r="F157" s="23"/>
       <c r="G157" t="n" s="23">
-        <v>1322.0</v>
+        <v>1313.0</v>
       </c>
       <c r="H157" s="23"/>
       <c r="I157" t="s" s="23">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="J157" s="24"/>
     </row>
@@ -5156,19 +5132,19 @@
       </c>
       <c r="B158" s="23"/>
       <c r="C158" t="n" s="23">
-        <v>37941.74826388889</v>
+        <v>28338.30625</v>
       </c>
       <c r="D158" s="23"/>
       <c r="E158" t="n" s="23">
-        <v>4287.0</v>
+        <v>4397.0</v>
       </c>
       <c r="F158" s="23"/>
       <c r="G158" t="n" s="23">
-        <v>9530.0</v>
+        <v>3607.0</v>
       </c>
       <c r="H158" s="23"/>
       <c r="I158" t="s" s="23">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="J158" s="24"/>
     </row>
@@ -5178,19 +5154,19 @@
       </c>
       <c r="B159" s="23"/>
       <c r="C159" t="n" s="23">
-        <v>30803.236006944444</v>
+        <v>36793.804756944446</v>
       </c>
       <c r="D159" s="23"/>
       <c r="E159" t="n" s="23">
-        <v>5163.0</v>
+        <v>6964.0</v>
       </c>
       <c r="F159" s="23"/>
       <c r="G159" t="n" s="23">
-        <v>7271.0</v>
+        <v>5853.0</v>
       </c>
       <c r="H159" s="23"/>
       <c r="I159" t="s" s="23">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="J159" s="24"/>
     </row>
@@ -5200,19 +5176,19 @@
       </c>
       <c r="B160" s="23"/>
       <c r="C160" t="n" s="23">
-        <v>37980.28773148148</v>
+        <v>35532.019467592596</v>
       </c>
       <c r="D160" s="23"/>
       <c r="E160" t="n" s="23">
-        <v>6609.0</v>
+        <v>7656.0</v>
       </c>
       <c r="F160" s="23"/>
       <c r="G160" t="n" s="23">
-        <v>10328.0</v>
+        <v>1272.0</v>
       </c>
       <c r="H160" s="23"/>
       <c r="I160" t="s" s="23">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J160" s="24"/>
     </row>
@@ -5222,1031 +5198,1031 @@
       </c>
       <c r="B161" s="23"/>
       <c r="C161" t="n" s="23">
-        <v>35902.43891203704</v>
+        <v>34752.92292824074</v>
       </c>
       <c r="D161" s="23"/>
       <c r="E161" t="n" s="23">
-        <v>8199.0</v>
+        <v>2212.0</v>
       </c>
       <c r="F161" s="23"/>
       <c r="G161" t="n" s="23">
-        <v>8523.0</v>
+        <v>2027.0</v>
       </c>
       <c r="H161" s="23"/>
       <c r="I161" t="s" s="23">
-        <v>272</v>
+        <v>60</v>
       </c>
       <c r="J161" s="24"/>
     </row>
     <row r="162" ht="18.0" customHeight="true">
       <c r="A162" t="s" s="22">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B162" s="23"/>
       <c r="C162" t="n" s="23">
-        <v>36509.93666666667</v>
+        <v>21873.522627314815</v>
       </c>
       <c r="D162" s="23"/>
       <c r="E162" t="n" s="23">
-        <v>3942.0</v>
+        <v>2356.0</v>
       </c>
       <c r="F162" s="23"/>
       <c r="G162" t="n" s="23">
-        <v>10161.0</v>
+        <v>8087.0</v>
       </c>
       <c r="H162" s="23"/>
       <c r="I162" t="s" s="23">
-        <v>274</v>
+        <v>19</v>
       </c>
       <c r="J162" s="24"/>
     </row>
     <row r="163" ht="18.0" customHeight="true">
       <c r="A163" t="s" s="22">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B163" s="23"/>
       <c r="C163" t="n" s="23">
-        <v>23346.881203703702</v>
+        <v>27125.455914351853</v>
       </c>
       <c r="D163" s="23"/>
       <c r="E163" t="n" s="23">
-        <v>1329.0</v>
+        <v>7570.0</v>
       </c>
       <c r="F163" s="23"/>
       <c r="G163" t="n" s="23">
-        <v>4943.0</v>
+        <v>9913.0</v>
       </c>
       <c r="H163" s="23"/>
       <c r="I163" t="s" s="23">
-        <v>276</v>
+        <v>192</v>
       </c>
       <c r="J163" s="24"/>
     </row>
     <row r="164" ht="18.0" customHeight="true">
       <c r="A164" t="s" s="22">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B164" s="23"/>
       <c r="C164" t="n" s="23">
-        <v>37495.6975</v>
+        <v>23643.81265046296</v>
       </c>
       <c r="D164" s="23"/>
       <c r="E164" t="n" s="23">
-        <v>4280.0</v>
+        <v>4872.0</v>
       </c>
       <c r="F164" s="23"/>
       <c r="G164" t="n" s="23">
-        <v>3988.0</v>
+        <v>7504.0</v>
       </c>
       <c r="H164" s="23"/>
       <c r="I164" t="s" s="23">
-        <v>278</v>
+        <v>35</v>
       </c>
       <c r="J164" s="24"/>
     </row>
     <row r="165" ht="18.0" customHeight="true">
       <c r="A165" t="s" s="22">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B165" s="23"/>
       <c r="C165" t="n" s="23">
-        <v>25987.124814814815</v>
+        <v>21604.357604166667</v>
       </c>
       <c r="D165" s="23"/>
       <c r="E165" t="n" s="23">
-        <v>8713.0</v>
+        <v>5676.0</v>
       </c>
       <c r="F165" s="23"/>
       <c r="G165" t="n" s="23">
-        <v>8669.0</v>
+        <v>2752.0</v>
       </c>
       <c r="H165" s="23"/>
       <c r="I165" t="s" s="23">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J165" s="24"/>
     </row>
     <row r="166" ht="18.0" customHeight="true">
       <c r="A166" t="s" s="22">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B166" s="23"/>
       <c r="C166" t="n" s="23">
-        <v>38042.42649305556</v>
+        <v>33620.50854166667</v>
       </c>
       <c r="D166" s="23"/>
       <c r="E166" t="n" s="23">
-        <v>6277.0</v>
+        <v>7229.0</v>
       </c>
       <c r="F166" s="23"/>
       <c r="G166" t="n" s="23">
-        <v>5335.0</v>
+        <v>8407.0</v>
       </c>
       <c r="H166" s="23"/>
       <c r="I166" t="s" s="23">
-        <v>282</v>
+        <v>116</v>
       </c>
       <c r="J166" s="24"/>
     </row>
     <row r="167" ht="18.0" customHeight="true">
       <c r="A167" t="s" s="22">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B167" s="23"/>
       <c r="C167" t="n" s="23">
-        <v>23786.30988425926</v>
+        <v>24856.176805555555</v>
       </c>
       <c r="D167" s="23"/>
       <c r="E167" t="n" s="23">
-        <v>9505.0</v>
+        <v>2536.0</v>
       </c>
       <c r="F167" s="23"/>
       <c r="G167" t="n" s="23">
-        <v>5400.0</v>
+        <v>1768.0</v>
       </c>
       <c r="H167" s="23"/>
       <c r="I167" t="s" s="23">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="J167" s="24"/>
     </row>
     <row r="168" ht="18.0" customHeight="true">
       <c r="A168" t="s" s="22">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B168" s="23"/>
       <c r="C168" t="n" s="23">
-        <v>32114.33653935185</v>
+        <v>36696.30222222222</v>
       </c>
       <c r="D168" s="23"/>
       <c r="E168" t="n" s="23">
-        <v>10301.0</v>
+        <v>4454.0</v>
       </c>
       <c r="F168" s="23"/>
       <c r="G168" t="n" s="23">
-        <v>3100.0</v>
+        <v>5859.0</v>
       </c>
       <c r="H168" s="23"/>
       <c r="I168" t="s" s="23">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="J168" s="24"/>
     </row>
     <row r="169" ht="18.0" customHeight="true">
       <c r="A169" t="s" s="22">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B169" s="23"/>
       <c r="C169" t="n" s="23">
-        <v>36775.670960648145</v>
+        <v>23664.48912037037</v>
       </c>
       <c r="D169" s="23"/>
       <c r="E169" t="n" s="23">
-        <v>8245.0</v>
+        <v>5549.0</v>
       </c>
       <c r="F169" s="23"/>
       <c r="G169" t="n" s="23">
-        <v>9049.0</v>
+        <v>9384.0</v>
       </c>
       <c r="H169" s="23"/>
       <c r="I169" t="s" s="23">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="J169" s="24"/>
     </row>
     <row r="170" ht="18.0" customHeight="true">
       <c r="A170" t="s" s="22">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B170" s="23"/>
       <c r="C170" t="n" s="23">
-        <v>34600.15703703704</v>
+        <v>25294.50045138889</v>
       </c>
       <c r="D170" s="23"/>
       <c r="E170" t="n" s="23">
-        <v>10191.0</v>
+        <v>6498.0</v>
       </c>
       <c r="F170" s="23"/>
       <c r="G170" t="n" s="23">
-        <v>2382.0</v>
+        <v>6520.0</v>
       </c>
       <c r="H170" s="23"/>
       <c r="I170" t="s" s="23">
-        <v>52</v>
+        <v>283</v>
       </c>
       <c r="J170" s="24"/>
     </row>
     <row r="171" ht="18.0" customHeight="true">
       <c r="A171" t="s" s="22">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B171" s="23"/>
       <c r="C171" t="n" s="23">
-        <v>32679.993680555555</v>
+        <v>26317.20451388889</v>
       </c>
       <c r="D171" s="23"/>
       <c r="E171" t="n" s="23">
-        <v>8936.0</v>
+        <v>5929.0</v>
       </c>
       <c r="F171" s="23"/>
       <c r="G171" t="n" s="23">
-        <v>10225.0</v>
+        <v>1296.0</v>
       </c>
       <c r="H171" s="23"/>
       <c r="I171" t="s" s="23">
-        <v>131</v>
+        <v>285</v>
       </c>
       <c r="J171" s="24"/>
     </row>
     <row r="172" ht="18.0" customHeight="true">
       <c r="A172" t="s" s="22">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B172" s="23"/>
       <c r="C172" t="n" s="23">
-        <v>37974.588854166665</v>
+        <v>22135.70605324074</v>
       </c>
       <c r="D172" s="23"/>
       <c r="E172" t="n" s="23">
-        <v>2946.0</v>
+        <v>2774.0</v>
       </c>
       <c r="F172" s="23"/>
       <c r="G172" t="n" s="23">
-        <v>2837.0</v>
+        <v>9212.0</v>
       </c>
       <c r="H172" s="23"/>
       <c r="I172" t="s" s="23">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="J172" s="24"/>
     </row>
     <row r="173" ht="18.0" customHeight="true">
       <c r="A173" t="s" s="22">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B173" s="23"/>
       <c r="C173" t="n" s="23">
-        <v>22474.287870370372</v>
+        <v>29002.284675925926</v>
       </c>
       <c r="D173" s="23"/>
       <c r="E173" t="n" s="23">
-        <v>2715.0</v>
+        <v>4859.0</v>
       </c>
       <c r="F173" s="23"/>
       <c r="G173" t="n" s="23">
-        <v>8612.0</v>
+        <v>8829.0</v>
       </c>
       <c r="H173" s="23"/>
       <c r="I173" t="s" s="23">
-        <v>146</v>
+        <v>288</v>
       </c>
       <c r="J173" s="24"/>
     </row>
     <row r="174" ht="18.0" customHeight="true">
       <c r="A174" t="s" s="22">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B174" s="23"/>
       <c r="C174" t="n" s="23">
-        <v>34142.42320601852</v>
+        <v>33929.44144675926</v>
       </c>
       <c r="D174" s="23"/>
       <c r="E174" t="n" s="23">
-        <v>5487.0</v>
+        <v>6478.0</v>
       </c>
       <c r="F174" s="23"/>
       <c r="G174" t="n" s="23">
-        <v>587.0</v>
+        <v>7260.0</v>
       </c>
       <c r="H174" s="23"/>
       <c r="I174" t="s" s="23">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="J174" s="24"/>
     </row>
     <row r="175" ht="18.0" customHeight="true">
       <c r="A175" t="s" s="22">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B175" s="23"/>
       <c r="C175" t="n" s="23">
-        <v>27371.170127314814</v>
+        <v>28894.85619212963</v>
       </c>
       <c r="D175" s="23"/>
       <c r="E175" t="n" s="23">
-        <v>7459.0</v>
+        <v>705.0</v>
       </c>
       <c r="F175" s="23"/>
       <c r="G175" t="n" s="23">
-        <v>3096.0</v>
+        <v>4591.0</v>
       </c>
       <c r="H175" s="23"/>
       <c r="I175" t="s" s="23">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="J175" s="24"/>
     </row>
     <row r="176" ht="18.0" customHeight="true">
       <c r="A176" t="s" s="22">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B176" s="23"/>
       <c r="C176" t="n" s="23">
-        <v>32198.275046296298</v>
+        <v>30333.796747685185</v>
       </c>
       <c r="D176" s="23"/>
       <c r="E176" t="n" s="23">
-        <v>859.0</v>
+        <v>7432.0</v>
       </c>
       <c r="F176" s="23"/>
       <c r="G176" t="n" s="23">
-        <v>6216.0</v>
+        <v>6635.0</v>
       </c>
       <c r="H176" s="23"/>
       <c r="I176" t="s" s="23">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="J176" s="24"/>
     </row>
     <row r="177" ht="18.0" customHeight="true">
       <c r="A177" t="s" s="22">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B177" s="23"/>
       <c r="C177" t="n" s="23">
-        <v>28869.023136574073</v>
+        <v>26393.71431712963</v>
       </c>
       <c r="D177" s="23"/>
       <c r="E177" t="n" s="23">
-        <v>8454.0</v>
+        <v>9570.0</v>
       </c>
       <c r="F177" s="23"/>
       <c r="G177" t="n" s="23">
-        <v>8138.0</v>
+        <v>3069.0</v>
       </c>
       <c r="H177" s="23"/>
       <c r="I177" t="s" s="23">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J177" s="24"/>
     </row>
     <row r="178" ht="18.0" customHeight="true">
       <c r="A178" t="s" s="22">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B178" s="23"/>
       <c r="C178" t="n" s="23">
-        <v>37315.89246527778</v>
+        <v>35029.62715277778</v>
       </c>
       <c r="D178" s="23"/>
       <c r="E178" t="n" s="23">
-        <v>9516.0</v>
+        <v>7858.0</v>
       </c>
       <c r="F178" s="23"/>
       <c r="G178" t="n" s="23">
-        <v>10164.0</v>
+        <v>6069.0</v>
       </c>
       <c r="H178" s="23"/>
       <c r="I178" t="s" s="23">
-        <v>299</v>
+        <v>114</v>
       </c>
       <c r="J178" s="24"/>
     </row>
     <row r="179" ht="18.0" customHeight="true">
       <c r="A179" t="s" s="22">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B179" s="23"/>
       <c r="C179" t="n" s="23">
-        <v>32890.517858796295</v>
+        <v>38046.7384375</v>
       </c>
       <c r="D179" s="23"/>
       <c r="E179" t="n" s="23">
-        <v>3191.0</v>
+        <v>9693.0</v>
       </c>
       <c r="F179" s="23"/>
       <c r="G179" t="n" s="23">
-        <v>8216.0</v>
+        <v>9159.0</v>
       </c>
       <c r="H179" s="23"/>
       <c r="I179" t="s" s="23">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="J179" s="24"/>
     </row>
     <row r="180" ht="18.0" customHeight="true">
       <c r="A180" t="s" s="22">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B180" s="23"/>
       <c r="C180" t="n" s="23">
-        <v>24657.884386574075</v>
+        <v>28060.731412037036</v>
       </c>
       <c r="D180" s="23"/>
       <c r="E180" t="n" s="23">
-        <v>2025.0</v>
+        <v>5620.0</v>
       </c>
       <c r="F180" s="23"/>
       <c r="G180" t="n" s="23">
-        <v>8073.0</v>
+        <v>10070.0</v>
       </c>
       <c r="H180" s="23"/>
       <c r="I180" t="s" s="23">
-        <v>84</v>
+        <v>298</v>
       </c>
       <c r="J180" s="24"/>
     </row>
     <row r="181" ht="18.0" customHeight="true">
       <c r="A181" t="s" s="22">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B181" s="23"/>
       <c r="C181" t="n" s="23">
-        <v>25796.331921296296</v>
+        <v>36286.119050925925</v>
       </c>
       <c r="D181" s="23"/>
       <c r="E181" t="n" s="23">
-        <v>1118.0</v>
+        <v>9216.0</v>
       </c>
       <c r="F181" s="23"/>
       <c r="G181" t="n" s="23">
-        <v>7322.0</v>
+        <v>2582.0</v>
       </c>
       <c r="H181" s="23"/>
       <c r="I181" t="s" s="23">
-        <v>303</v>
+        <v>149</v>
       </c>
       <c r="J181" s="24"/>
     </row>
     <row r="182" ht="18.0" customHeight="true">
       <c r="A182" t="s" s="22">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B182" s="23"/>
       <c r="C182" t="n" s="23">
-        <v>34771.785358796296</v>
+        <v>24167.084039351852</v>
       </c>
       <c r="D182" s="23"/>
       <c r="E182" t="n" s="23">
-        <v>5783.0</v>
+        <v>4589.0</v>
       </c>
       <c r="F182" s="23"/>
       <c r="G182" t="n" s="23">
-        <v>4341.0</v>
+        <v>8764.0</v>
       </c>
       <c r="H182" s="23"/>
       <c r="I182" t="s" s="23">
-        <v>84</v>
+        <v>301</v>
       </c>
       <c r="J182" s="24"/>
     </row>
     <row r="183" ht="18.0" customHeight="true">
       <c r="A183" t="s" s="22">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B183" s="23"/>
       <c r="C183" t="n" s="23">
-        <v>25847.238541666666</v>
+        <v>22639.542465277777</v>
       </c>
       <c r="D183" s="23"/>
       <c r="E183" t="n" s="23">
-        <v>10043.0</v>
+        <v>8577.0</v>
       </c>
       <c r="F183" s="23"/>
       <c r="G183" t="n" s="23">
-        <v>9992.0</v>
+        <v>800.0</v>
       </c>
       <c r="H183" s="23"/>
       <c r="I183" t="s" s="23">
-        <v>306</v>
+        <v>98</v>
       </c>
       <c r="J183" s="24"/>
     </row>
     <row r="184" ht="18.0" customHeight="true">
       <c r="A184" t="s" s="22">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B184" s="23"/>
       <c r="C184" t="n" s="23">
-        <v>37262.93056712963</v>
+        <v>24801.90747685185</v>
       </c>
       <c r="D184" s="23"/>
       <c r="E184" t="n" s="23">
-        <v>1509.0</v>
+        <v>2641.0</v>
       </c>
       <c r="F184" s="23"/>
       <c r="G184" t="n" s="23">
-        <v>6367.0</v>
+        <v>7311.0</v>
       </c>
       <c r="H184" s="23"/>
       <c r="I184" t="s" s="23">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="J184" s="24"/>
     </row>
     <row r="185" ht="18.0" customHeight="true">
       <c r="A185" t="s" s="22">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B185" s="23"/>
       <c r="C185" t="n" s="23">
-        <v>24652.00954861111</v>
+        <v>33843.576886574076</v>
       </c>
       <c r="D185" s="23"/>
       <c r="E185" t="n" s="23">
-        <v>3829.0</v>
+        <v>2021.0</v>
       </c>
       <c r="F185" s="23"/>
       <c r="G185" t="n" s="23">
-        <v>6658.0</v>
+        <v>6791.0</v>
       </c>
       <c r="H185" s="23"/>
       <c r="I185" t="s" s="23">
-        <v>309</v>
+        <v>86</v>
       </c>
       <c r="J185" s="24"/>
     </row>
     <row r="186" ht="18.0" customHeight="true">
       <c r="A186" t="s" s="22">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B186" s="23"/>
       <c r="C186" t="n" s="23">
-        <v>31438.544363425925</v>
+        <v>28131.06111111111</v>
       </c>
       <c r="D186" s="23"/>
       <c r="E186" t="n" s="23">
-        <v>4408.0</v>
+        <v>2360.0</v>
       </c>
       <c r="F186" s="23"/>
       <c r="G186" t="n" s="23">
-        <v>3241.0</v>
+        <v>4685.0</v>
       </c>
       <c r="H186" s="23"/>
       <c r="I186" t="s" s="23">
-        <v>227</v>
+        <v>62</v>
       </c>
       <c r="J186" s="24"/>
     </row>
     <row r="187" ht="18.0" customHeight="true">
       <c r="A187" t="s" s="22">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B187" s="23"/>
       <c r="C187" t="n" s="23">
-        <v>37018.63730324074</v>
+        <v>21687.84457175926</v>
       </c>
       <c r="D187" s="23"/>
       <c r="E187" t="n" s="23">
-        <v>2210.0</v>
+        <v>5586.0</v>
       </c>
       <c r="F187" s="23"/>
       <c r="G187" t="n" s="23">
-        <v>2048.0</v>
+        <v>5920.0</v>
       </c>
       <c r="H187" s="23"/>
       <c r="I187" t="s" s="23">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="J187" s="24"/>
     </row>
     <row r="188" ht="18.0" customHeight="true">
       <c r="A188" t="s" s="22">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B188" s="23"/>
       <c r="C188" t="n" s="23">
-        <v>23687.254942129628</v>
+        <v>26881.063692129628</v>
       </c>
       <c r="D188" s="23"/>
       <c r="E188" t="n" s="23">
-        <v>7428.0</v>
+        <v>7078.0</v>
       </c>
       <c r="F188" s="23"/>
       <c r="G188" t="n" s="23">
-        <v>10109.0</v>
+        <v>1129.0</v>
       </c>
       <c r="H188" s="23"/>
       <c r="I188" t="s" s="23">
-        <v>264</v>
+        <v>25</v>
       </c>
       <c r="J188" s="24"/>
     </row>
     <row r="189" ht="18.0" customHeight="true">
       <c r="A189" t="s" s="22">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B189" s="23"/>
       <c r="C189" t="n" s="23">
-        <v>34963.91899305556</v>
+        <v>34831.967314814814</v>
       </c>
       <c r="D189" s="23"/>
       <c r="E189" t="n" s="23">
-        <v>10243.0</v>
+        <v>7279.0</v>
       </c>
       <c r="F189" s="23"/>
       <c r="G189" t="n" s="23">
-        <v>1864.0</v>
+        <v>9636.0</v>
       </c>
       <c r="H189" s="23"/>
       <c r="I189" t="s" s="23">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="J189" s="24"/>
     </row>
     <row r="190" ht="18.0" customHeight="true">
       <c r="A190" t="s" s="22">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B190" s="23"/>
       <c r="C190" t="n" s="23">
-        <v>30726.255891203702</v>
+        <v>25012.595046296297</v>
       </c>
       <c r="D190" s="23"/>
       <c r="E190" t="n" s="23">
-        <v>5341.0</v>
+        <v>5807.0</v>
       </c>
       <c r="F190" s="23"/>
       <c r="G190" t="n" s="23">
-        <v>5143.0</v>
+        <v>5518.0</v>
       </c>
       <c r="H190" s="23"/>
       <c r="I190" t="s" s="23">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J190" s="24"/>
     </row>
     <row r="191" ht="18.0" customHeight="true">
       <c r="A191" t="s" s="22">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B191" s="23"/>
       <c r="C191" t="n" s="23">
-        <v>25775.41642361111</v>
+        <v>38071.49539351852</v>
       </c>
       <c r="D191" s="23"/>
       <c r="E191" t="n" s="23">
-        <v>7343.0</v>
+        <v>2179.0</v>
       </c>
       <c r="F191" s="23"/>
       <c r="G191" t="n" s="23">
-        <v>1532.0</v>
+        <v>9381.0</v>
       </c>
       <c r="H191" s="23"/>
       <c r="I191" t="s" s="23">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="J191" s="24"/>
     </row>
     <row r="192" ht="18.0" customHeight="true">
       <c r="A192" t="s" s="22">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B192" s="23"/>
       <c r="C192" t="n" s="23">
-        <v>31107.88894675926</v>
+        <v>33608.79958333333</v>
       </c>
       <c r="D192" s="23"/>
       <c r="E192" t="n" s="23">
-        <v>1993.0</v>
+        <v>4888.0</v>
       </c>
       <c r="F192" s="23"/>
       <c r="G192" t="n" s="23">
-        <v>5461.0</v>
+        <v>6443.0</v>
       </c>
       <c r="H192" s="23"/>
       <c r="I192" t="s" s="23">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="J192" s="24"/>
     </row>
     <row r="193" ht="18.0" customHeight="true">
       <c r="A193" t="s" s="22">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B193" s="23"/>
       <c r="C193" t="n" s="23">
-        <v>36382.63012731481</v>
+        <v>25335.790613425925</v>
       </c>
       <c r="D193" s="23"/>
       <c r="E193" t="n" s="23">
-        <v>6830.0</v>
+        <v>10244.0</v>
       </c>
       <c r="F193" s="23"/>
       <c r="G193" t="n" s="23">
-        <v>8778.0</v>
+        <v>2879.0</v>
       </c>
       <c r="H193" s="23"/>
       <c r="I193" t="s" s="23">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="J193" s="24"/>
     </row>
     <row r="194" ht="18.0" customHeight="true">
       <c r="A194" t="s" s="22">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B194" s="23"/>
       <c r="C194" t="n" s="23">
-        <v>34580.282013888886</v>
+        <v>25430.493668981482</v>
       </c>
       <c r="D194" s="23"/>
       <c r="E194" t="n" s="23">
-        <v>915.0</v>
+        <v>4012.0</v>
       </c>
       <c r="F194" s="23"/>
       <c r="G194" t="n" s="23">
-        <v>3412.0</v>
+        <v>5279.0</v>
       </c>
       <c r="H194" s="23"/>
       <c r="I194" t="s" s="23">
-        <v>321</v>
+        <v>37</v>
       </c>
       <c r="J194" s="24"/>
     </row>
     <row r="195" ht="18.0" customHeight="true">
       <c r="A195" t="s" s="22">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B195" s="23"/>
       <c r="C195" t="n" s="23">
-        <v>28597.77582175926</v>
+        <v>23421.580393518518</v>
       </c>
       <c r="D195" s="23"/>
       <c r="E195" t="n" s="23">
-        <v>6112.0</v>
+        <v>1049.0</v>
       </c>
       <c r="F195" s="23"/>
       <c r="G195" t="n" s="23">
-        <v>2912.0</v>
+        <v>8138.0</v>
       </c>
       <c r="H195" s="23"/>
       <c r="I195" t="s" s="23">
-        <v>323</v>
+        <v>80</v>
       </c>
       <c r="J195" s="24"/>
     </row>
     <row r="196" ht="18.0" customHeight="true">
       <c r="A196" t="s" s="22">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B196" s="23"/>
       <c r="C196" t="n" s="23">
-        <v>30105.252141203702</v>
+        <v>29738.950520833332</v>
       </c>
       <c r="D196" s="23"/>
       <c r="E196" t="n" s="23">
-        <v>5949.0</v>
+        <v>1010.0</v>
       </c>
       <c r="F196" s="23"/>
       <c r="G196" t="n" s="23">
-        <v>9056.0</v>
+        <v>1747.0</v>
       </c>
       <c r="H196" s="23"/>
       <c r="I196" t="s" s="23">
-        <v>155</v>
+        <v>229</v>
       </c>
       <c r="J196" s="24"/>
     </row>
     <row r="197" ht="18.0" customHeight="true">
       <c r="A197" t="s" s="22">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B197" s="23"/>
       <c r="C197" t="n" s="23">
-        <v>31482.388726851852</v>
+        <v>23889.86635416667</v>
       </c>
       <c r="D197" s="23"/>
       <c r="E197" t="n" s="23">
-        <v>9461.0</v>
+        <v>5745.0</v>
       </c>
       <c r="F197" s="23"/>
       <c r="G197" t="n" s="23">
-        <v>8446.0</v>
+        <v>1682.0</v>
       </c>
       <c r="H197" s="23"/>
       <c r="I197" t="s" s="23">
-        <v>128</v>
+        <v>319</v>
       </c>
       <c r="J197" s="24"/>
     </row>
     <row r="198" ht="18.0" customHeight="true">
       <c r="A198" t="s" s="22">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B198" s="23"/>
       <c r="C198" t="n" s="23">
-        <v>35522.328518518516</v>
+        <v>38497.54697916667</v>
       </c>
       <c r="D198" s="23"/>
       <c r="E198" t="n" s="23">
-        <v>5529.0</v>
+        <v>8301.0</v>
       </c>
       <c r="F198" s="23"/>
       <c r="G198" t="n" s="23">
-        <v>6913.0</v>
+        <v>5360.0</v>
       </c>
       <c r="H198" s="23"/>
       <c r="I198" t="s" s="23">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="J198" s="24"/>
     </row>
     <row r="199" ht="18.0" customHeight="true">
       <c r="A199" t="s" s="22">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B199" s="23"/>
       <c r="C199" t="n" s="23">
-        <v>38305.90675925926</v>
+        <v>25054.34390046296</v>
       </c>
       <c r="D199" s="23"/>
       <c r="E199" t="n" s="23">
-        <v>7534.0</v>
+        <v>6955.0</v>
       </c>
       <c r="F199" s="23"/>
       <c r="G199" t="n" s="23">
-        <v>1398.0</v>
+        <v>5406.0</v>
       </c>
       <c r="H199" s="23"/>
       <c r="I199" t="s" s="23">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="J199" s="24"/>
     </row>
     <row r="200" ht="18.0" customHeight="true">
       <c r="A200" t="s" s="22">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B200" s="23"/>
       <c r="C200" t="n" s="23">
-        <v>29632.288703703704</v>
+        <v>37800.15164351852</v>
       </c>
       <c r="D200" s="23"/>
       <c r="E200" t="n" s="23">
-        <v>3608.0</v>
+        <v>2176.0</v>
       </c>
       <c r="F200" s="23"/>
       <c r="G200" t="n" s="23">
-        <v>1315.0</v>
+        <v>4203.0</v>
       </c>
       <c r="H200" s="23"/>
       <c r="I200" t="s" s="23">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="J200" s="24"/>
     </row>
     <row r="201" ht="18.0" customHeight="true">
       <c r="A201" t="s" s="22">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B201" s="23"/>
       <c r="C201" t="n" s="23">
-        <v>36282.695</v>
+        <v>24192.26096064815</v>
       </c>
       <c r="D201" s="23"/>
       <c r="E201" t="n" s="23">
-        <v>10312.0</v>
+        <v>4876.0</v>
       </c>
       <c r="F201" s="23"/>
       <c r="G201" t="n" s="23">
-        <v>4567.0</v>
+        <v>9527.0</v>
       </c>
       <c r="H201" s="23"/>
       <c r="I201" t="s" s="23">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="J201" s="24"/>
     </row>
     <row r="202" ht="18.0" customHeight="true">
       <c r="A202" t="s" s="22">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B202" s="23"/>
       <c r="C202" t="n" s="23">
-        <v>23872.193599537037</v>
+        <v>27389.9803125</v>
       </c>
       <c r="D202" s="23"/>
       <c r="E202" t="n" s="23">
-        <v>10018.0</v>
+        <v>8052.0</v>
       </c>
       <c r="F202" s="23"/>
       <c r="G202" t="n" s="23">
-        <v>8366.0</v>
+        <v>7873.0</v>
       </c>
       <c r="H202" s="23"/>
       <c r="I202" t="s" s="23">
-        <v>334</v>
+        <v>104</v>
       </c>
       <c r="J202" s="24"/>
     </row>
     <row r="203" ht="18.0" customHeight="true">
       <c r="A203" t="s" s="22">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B203" s="23"/>
       <c r="C203" t="n" s="23">
-        <v>33518.42560185185</v>
+        <v>23536.407349537036</v>
       </c>
       <c r="D203" s="23"/>
       <c r="E203" t="n" s="23">
-        <v>8417.0</v>
+        <v>7462.0</v>
       </c>
       <c r="F203" s="23"/>
       <c r="G203" t="n" s="23">
-        <v>3442.0</v>
+        <v>9012.0</v>
       </c>
       <c r="H203" s="23"/>
       <c r="I203" t="s" s="23">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="J203" s="24"/>
     </row>
     <row r="204" ht="18.0" customHeight="true">
       <c r="A204" t="s" s="22">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B204" s="23"/>
       <c r="C204" t="n" s="23">
-        <v>25317.739525462963</v>
+        <v>25621.472175925926</v>
       </c>
       <c r="D204" s="23"/>
       <c r="E204" t="n" s="23">
-        <v>9735.0</v>
+        <v>9682.0</v>
       </c>
       <c r="F204" s="23"/>
       <c r="G204" t="n" s="23">
-        <v>10281.0</v>
+        <v>1817.0</v>
       </c>
       <c r="H204" s="23"/>
       <c r="I204" t="s" s="23">
-        <v>338</v>
+        <v>244</v>
       </c>
       <c r="J204" s="24"/>
     </row>
     <row r="205" ht="18.0" customHeight="true">
       <c r="A205" t="s" s="22">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B205" s="23"/>
       <c r="C205" t="n" s="23">
-        <v>35341.80584490741</v>
+        <v>38429.24842592593</v>
       </c>
       <c r="D205" s="23"/>
       <c r="E205" t="n" s="23">
-        <v>9064.0</v>
+        <v>4264.0</v>
       </c>
       <c r="F205" s="23"/>
       <c r="G205" t="n" s="23">
-        <v>6249.0</v>
+        <v>5838.0</v>
       </c>
       <c r="H205" s="23"/>
       <c r="I205" t="s" s="23">
-        <v>25</v>
+        <v>331</v>
       </c>
       <c r="J205" s="24"/>
     </row>
     <row r="206" ht="18.0" customHeight="true">
       <c r="A206" t="s" s="22">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B206" s="23"/>
       <c r="C206" t="n" s="23">
-        <v>33672.74553240741</v>
+        <v>26073.149791666667</v>
       </c>
       <c r="D206" s="23"/>
       <c r="E206" t="n" s="23">
-        <v>6693.0</v>
+        <v>6665.0</v>
       </c>
       <c r="F206" s="23"/>
       <c r="G206" t="n" s="23">
-        <v>9504.0</v>
+        <v>2656.0</v>
       </c>
       <c r="H206" s="23"/>
       <c r="I206" t="s" s="23">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J206" s="24"/>
     </row>
     <row r="207" ht="18.0" customHeight="true">
       <c r="A207" t="s" s="22">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B207" s="23"/>
       <c r="C207" t="n" s="23">
-        <v>27589.98611111111</v>
+        <v>22470.903773148148</v>
       </c>
       <c r="D207" s="23"/>
       <c r="E207" t="n" s="23">
-        <v>4469.0</v>
+        <v>5819.0</v>
       </c>
       <c r="F207" s="23"/>
       <c r="G207" t="n" s="23">
-        <v>1719.0</v>
+        <v>2584.0</v>
       </c>
       <c r="H207" s="23"/>
       <c r="I207" t="s" s="23">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="J207" s="24"/>
     </row>
